--- a/static/회사명_List.xlsx
+++ b/static/회사명_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\mysite\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151D5AD7-4E1F-45F1-80AC-DCB3AF81D6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B3BE28-68C1-4023-AE9E-276D91160651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7830" yWindow="645" windowWidth="17475" windowHeight="15015" xr2:uid="{5C1CB358-56FA-42D7-BF8E-B67643FE4E0E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{5C1CB358-56FA-42D7-BF8E-B67643FE4E0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -11484,9 +11484,6 @@
     <t>[003670]</t>
   </si>
   <si>
-    <t>포스코케미칼</t>
-  </si>
-  <si>
     <t>[189690]</t>
   </si>
   <si>
@@ -14101,6 +14098,10 @@
   </si>
   <si>
     <t>화인써키트</t>
+  </si>
+  <si>
+    <t>포스코퓨처엠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -14478,8 +14479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A358DBC2-A278-4E96-8CAA-C7B1C713CCBF}">
   <dimension ref="A1:B2345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2316" workbookViewId="0">
-      <selection activeCell="A2347" sqref="A2347"/>
+    <sheetView tabSelected="1" topLeftCell="A1905" workbookViewId="0">
+      <selection activeCell="B1923" sqref="B1923"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14564,7 +14565,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>4563</v>
+        <v>4562</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -15972,7 +15973,7 @@
         <v>369</v>
       </c>
       <c r="B186" t="s">
-        <v>4564</v>
+        <v>4563</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
@@ -16012,7 +16013,7 @@
         <v>378</v>
       </c>
       <c r="B191" t="s">
-        <v>4565</v>
+        <v>4564</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
@@ -16020,7 +16021,7 @@
         <v>379</v>
       </c>
       <c r="B192" t="s">
-        <v>4566</v>
+        <v>4565</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
@@ -17316,7 +17317,7 @@
         <v>702</v>
       </c>
       <c r="B354" t="s">
-        <v>4567</v>
+        <v>4566</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
@@ -17572,7 +17573,7 @@
         <v>765</v>
       </c>
       <c r="B386" t="s">
-        <v>4568</v>
+        <v>4567</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
@@ -18572,7 +18573,7 @@
         <v>1014</v>
       </c>
       <c r="B511" t="s">
-        <v>4569</v>
+        <v>4568</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.3">
@@ -18716,7 +18717,7 @@
         <v>1049</v>
       </c>
       <c r="B529" t="s">
-        <v>4570</v>
+        <v>4569</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.3">
@@ -19348,7 +19349,7 @@
         <v>1206</v>
       </c>
       <c r="B608" t="s">
-        <v>4571</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.3">
@@ -19612,7 +19613,7 @@
         <v>1271</v>
       </c>
       <c r="B641" t="s">
-        <v>4572</v>
+        <v>4571</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.3">
@@ -19900,7 +19901,7 @@
         <v>1342</v>
       </c>
       <c r="B677" t="s">
-        <v>4573</v>
+        <v>4572</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.3">
@@ -20300,7 +20301,7 @@
         <v>1441</v>
       </c>
       <c r="B727" t="s">
-        <v>4574</v>
+        <v>4573</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.3">
@@ -20340,7 +20341,7 @@
         <v>1450</v>
       </c>
       <c r="B732" t="s">
-        <v>4575</v>
+        <v>4574</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.3">
@@ -20572,7 +20573,7 @@
         <v>1507</v>
       </c>
       <c r="B761" t="s">
-        <v>4576</v>
+        <v>4575</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.3">
@@ -21764,7 +21765,7 @@
         <v>1804</v>
       </c>
       <c r="B910" t="s">
-        <v>4577</v>
+        <v>4576</v>
       </c>
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.3">
@@ -21988,7 +21989,7 @@
         <v>1859</v>
       </c>
       <c r="B938" t="s">
-        <v>4578</v>
+        <v>4577</v>
       </c>
     </row>
     <row r="939" spans="1:2" x14ac:dyDescent="0.3">
@@ -22044,7 +22045,7 @@
         <v>1872</v>
       </c>
       <c r="B945" t="s">
-        <v>4579</v>
+        <v>4578</v>
       </c>
     </row>
     <row r="946" spans="1:2" x14ac:dyDescent="0.3">
@@ -22388,7 +22389,7 @@
         <v>1957</v>
       </c>
       <c r="B988" t="s">
-        <v>4580</v>
+        <v>4579</v>
       </c>
     </row>
     <row r="989" spans="1:2" x14ac:dyDescent="0.3">
@@ -22620,7 +22621,7 @@
         <v>2014</v>
       </c>
       <c r="B1017" t="s">
-        <v>4581</v>
+        <v>4580</v>
       </c>
     </row>
     <row r="1018" spans="1:2" x14ac:dyDescent="0.3">
@@ -23012,7 +23013,7 @@
         <v>2111</v>
       </c>
       <c r="B1066" t="s">
-        <v>4582</v>
+        <v>4581</v>
       </c>
     </row>
     <row r="1067" spans="1:2" x14ac:dyDescent="0.3">
@@ -24132,7 +24133,7 @@
         <v>2390</v>
       </c>
       <c r="B1206" t="s">
-        <v>4583</v>
+        <v>4582</v>
       </c>
     </row>
     <row r="1207" spans="1:2" x14ac:dyDescent="0.3">
@@ -26340,7 +26341,7 @@
         <v>2940</v>
       </c>
       <c r="B1482" t="s">
-        <v>4584</v>
+        <v>4583</v>
       </c>
     </row>
     <row r="1483" spans="1:2" x14ac:dyDescent="0.3">
@@ -28460,7 +28461,7 @@
         <v>3469</v>
       </c>
       <c r="B1747" t="s">
-        <v>4585</v>
+        <v>4584</v>
       </c>
     </row>
     <row r="1748" spans="1:2" x14ac:dyDescent="0.3">
@@ -28508,7 +28509,7 @@
         <v>3480</v>
       </c>
       <c r="B1753" t="s">
-        <v>4586</v>
+        <v>4585</v>
       </c>
     </row>
     <row r="1754" spans="1:2" x14ac:dyDescent="0.3">
@@ -28636,7 +28637,7 @@
         <v>3511</v>
       </c>
       <c r="B1769" t="s">
-        <v>4587</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="1770" spans="1:2" x14ac:dyDescent="0.3">
@@ -28780,7 +28781,7 @@
         <v>3546</v>
       </c>
       <c r="B1787" t="s">
-        <v>4588</v>
+        <v>4587</v>
       </c>
     </row>
     <row r="1788" spans="1:2" x14ac:dyDescent="0.3">
@@ -29860,3391 +29861,3391 @@
         <v>3815</v>
       </c>
       <c r="B1922" t="s">
-        <v>3816</v>
+        <v>4688</v>
       </c>
     </row>
     <row r="1923" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1923" t="s">
+        <v>3816</v>
+      </c>
+      <c r="B1923" t="s">
         <v>3817</v>
-      </c>
-      <c r="B1923" t="s">
-        <v>3818</v>
       </c>
     </row>
     <row r="1924" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1924" t="s">
+        <v>3818</v>
+      </c>
+      <c r="B1924" t="s">
         <v>3819</v>
-      </c>
-      <c r="B1924" t="s">
-        <v>3820</v>
       </c>
     </row>
     <row r="1925" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1925" t="s">
+        <v>3820</v>
+      </c>
+      <c r="B1925" t="s">
         <v>3821</v>
-      </c>
-      <c r="B1925" t="s">
-        <v>3822</v>
       </c>
     </row>
     <row r="1926" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1926" t="s">
+        <v>3822</v>
+      </c>
+      <c r="B1926" t="s">
         <v>3823</v>
-      </c>
-      <c r="B1926" t="s">
-        <v>3824</v>
       </c>
     </row>
     <row r="1927" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1927" t="s">
+        <v>3824</v>
+      </c>
+      <c r="B1927" t="s">
         <v>3825</v>
-      </c>
-      <c r="B1927" t="s">
-        <v>3826</v>
       </c>
     </row>
     <row r="1928" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1928" t="s">
+        <v>3826</v>
+      </c>
+      <c r="B1928" t="s">
         <v>3827</v>
-      </c>
-      <c r="B1928" t="s">
-        <v>3828</v>
       </c>
     </row>
     <row r="1929" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1929" t="s">
+        <v>3828</v>
+      </c>
+      <c r="B1929" t="s">
         <v>3829</v>
-      </c>
-      <c r="B1929" t="s">
-        <v>3830</v>
       </c>
     </row>
     <row r="1930" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1930" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B1930" t="s">
         <v>3831</v>
-      </c>
-      <c r="B1930" t="s">
-        <v>3832</v>
       </c>
     </row>
     <row r="1931" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1931" t="s">
+        <v>3832</v>
+      </c>
+      <c r="B1931" t="s">
         <v>3833</v>
-      </c>
-      <c r="B1931" t="s">
-        <v>3834</v>
       </c>
     </row>
     <row r="1932" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1932" t="s">
+        <v>3834</v>
+      </c>
+      <c r="B1932" t="s">
         <v>3835</v>
-      </c>
-      <c r="B1932" t="s">
-        <v>3836</v>
       </c>
     </row>
     <row r="1933" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1933" t="s">
+        <v>3836</v>
+      </c>
+      <c r="B1933" t="s">
         <v>3837</v>
-      </c>
-      <c r="B1933" t="s">
-        <v>3838</v>
       </c>
     </row>
     <row r="1934" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1934" t="s">
+        <v>3838</v>
+      </c>
+      <c r="B1934" t="s">
         <v>3839</v>
-      </c>
-      <c r="B1934" t="s">
-        <v>3840</v>
       </c>
     </row>
     <row r="1935" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1935" t="s">
+        <v>3840</v>
+      </c>
+      <c r="B1935" t="s">
         <v>3841</v>
-      </c>
-      <c r="B1935" t="s">
-        <v>3842</v>
       </c>
     </row>
     <row r="1936" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1936" t="s">
+        <v>3842</v>
+      </c>
+      <c r="B1936" t="s">
         <v>3843</v>
-      </c>
-      <c r="B1936" t="s">
-        <v>3844</v>
       </c>
     </row>
     <row r="1937" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1937" t="s">
+        <v>3844</v>
+      </c>
+      <c r="B1937" t="s">
         <v>3845</v>
-      </c>
-      <c r="B1937" t="s">
-        <v>3846</v>
       </c>
     </row>
     <row r="1938" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1938" t="s">
+        <v>3846</v>
+      </c>
+      <c r="B1938" t="s">
         <v>3847</v>
-      </c>
-      <c r="B1938" t="s">
-        <v>3848</v>
       </c>
     </row>
     <row r="1939" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1939" t="s">
+        <v>3848</v>
+      </c>
+      <c r="B1939" t="s">
         <v>3849</v>
-      </c>
-      <c r="B1939" t="s">
-        <v>3850</v>
       </c>
     </row>
     <row r="1940" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1940" t="s">
+        <v>3850</v>
+      </c>
+      <c r="B1940" t="s">
         <v>3851</v>
-      </c>
-      <c r="B1940" t="s">
-        <v>3852</v>
       </c>
     </row>
     <row r="1941" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1941" t="s">
+        <v>3852</v>
+      </c>
+      <c r="B1941" t="s">
         <v>3853</v>
-      </c>
-      <c r="B1941" t="s">
-        <v>3854</v>
       </c>
     </row>
     <row r="1942" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1942" t="s">
+        <v>3854</v>
+      </c>
+      <c r="B1942" t="s">
         <v>3855</v>
-      </c>
-      <c r="B1942" t="s">
-        <v>3856</v>
       </c>
     </row>
     <row r="1943" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1943" t="s">
+        <v>3856</v>
+      </c>
+      <c r="B1943" t="s">
         <v>3857</v>
-      </c>
-      <c r="B1943" t="s">
-        <v>3858</v>
       </c>
     </row>
     <row r="1944" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1944" t="s">
+        <v>3858</v>
+      </c>
+      <c r="B1944" t="s">
         <v>3859</v>
-      </c>
-      <c r="B1944" t="s">
-        <v>3860</v>
       </c>
     </row>
     <row r="1945" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1945" t="s">
+        <v>3860</v>
+      </c>
+      <c r="B1945" t="s">
         <v>3861</v>
-      </c>
-      <c r="B1945" t="s">
-        <v>3862</v>
       </c>
     </row>
     <row r="1946" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1946" t="s">
+        <v>3862</v>
+      </c>
+      <c r="B1946" t="s">
         <v>3863</v>
-      </c>
-      <c r="B1946" t="s">
-        <v>3864</v>
       </c>
     </row>
     <row r="1947" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1947" t="s">
+        <v>3864</v>
+      </c>
+      <c r="B1947" t="s">
         <v>3865</v>
-      </c>
-      <c r="B1947" t="s">
-        <v>3866</v>
       </c>
     </row>
     <row r="1948" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1948" t="s">
+        <v>3866</v>
+      </c>
+      <c r="B1948" t="s">
         <v>3867</v>
-      </c>
-      <c r="B1948" t="s">
-        <v>3868</v>
       </c>
     </row>
     <row r="1949" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1949" t="s">
+        <v>3868</v>
+      </c>
+      <c r="B1949" t="s">
         <v>3869</v>
-      </c>
-      <c r="B1949" t="s">
-        <v>3870</v>
       </c>
     </row>
     <row r="1950" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1950" t="s">
+        <v>3870</v>
+      </c>
+      <c r="B1950" t="s">
         <v>3871</v>
-      </c>
-      <c r="B1950" t="s">
-        <v>3872</v>
       </c>
     </row>
     <row r="1951" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1951" t="s">
+        <v>3872</v>
+      </c>
+      <c r="B1951" t="s">
         <v>3873</v>
-      </c>
-      <c r="B1951" t="s">
-        <v>3874</v>
       </c>
     </row>
     <row r="1952" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1952" t="s">
+        <v>3874</v>
+      </c>
+      <c r="B1952" t="s">
         <v>3875</v>
-      </c>
-      <c r="B1952" t="s">
-        <v>3876</v>
       </c>
     </row>
     <row r="1953" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1953" t="s">
+        <v>3876</v>
+      </c>
+      <c r="B1953" t="s">
         <v>3877</v>
-      </c>
-      <c r="B1953" t="s">
-        <v>3878</v>
       </c>
     </row>
     <row r="1954" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1954" t="s">
+        <v>3878</v>
+      </c>
+      <c r="B1954" t="s">
         <v>3879</v>
-      </c>
-      <c r="B1954" t="s">
-        <v>3880</v>
       </c>
     </row>
     <row r="1955" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1955" t="s">
+        <v>3880</v>
+      </c>
+      <c r="B1955" t="s">
         <v>3881</v>
-      </c>
-      <c r="B1955" t="s">
-        <v>3882</v>
       </c>
     </row>
     <row r="1956" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1956" t="s">
+        <v>3882</v>
+      </c>
+      <c r="B1956" t="s">
         <v>3883</v>
-      </c>
-      <c r="B1956" t="s">
-        <v>3884</v>
       </c>
     </row>
     <row r="1957" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1957" t="s">
+        <v>3884</v>
+      </c>
+      <c r="B1957" t="s">
         <v>3885</v>
-      </c>
-      <c r="B1957" t="s">
-        <v>3886</v>
       </c>
     </row>
     <row r="1958" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1958" t="s">
+        <v>3886</v>
+      </c>
+      <c r="B1958" t="s">
         <v>3887</v>
-      </c>
-      <c r="B1958" t="s">
-        <v>3888</v>
       </c>
     </row>
     <row r="1959" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1959" t="s">
+        <v>3888</v>
+      </c>
+      <c r="B1959" t="s">
         <v>3889</v>
-      </c>
-      <c r="B1959" t="s">
-        <v>3890</v>
       </c>
     </row>
     <row r="1960" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1960" t="s">
+        <v>3890</v>
+      </c>
+      <c r="B1960" t="s">
         <v>3891</v>
-      </c>
-      <c r="B1960" t="s">
-        <v>3892</v>
       </c>
     </row>
     <row r="1961" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1961" t="s">
+        <v>3892</v>
+      </c>
+      <c r="B1961" t="s">
         <v>3893</v>
-      </c>
-      <c r="B1961" t="s">
-        <v>3894</v>
       </c>
     </row>
     <row r="1962" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1962" t="s">
+        <v>3894</v>
+      </c>
+      <c r="B1962" t="s">
         <v>3895</v>
-      </c>
-      <c r="B1962" t="s">
-        <v>3896</v>
       </c>
     </row>
     <row r="1963" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1963" t="s">
+        <v>3896</v>
+      </c>
+      <c r="B1963" t="s">
         <v>3897</v>
-      </c>
-      <c r="B1963" t="s">
-        <v>3898</v>
       </c>
     </row>
     <row r="1964" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1964" t="s">
+        <v>3898</v>
+      </c>
+      <c r="B1964" t="s">
         <v>3899</v>
-      </c>
-      <c r="B1964" t="s">
-        <v>3900</v>
       </c>
     </row>
     <row r="1965" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1965" t="s">
+        <v>3900</v>
+      </c>
+      <c r="B1965" t="s">
         <v>3901</v>
-      </c>
-      <c r="B1965" t="s">
-        <v>3902</v>
       </c>
     </row>
     <row r="1966" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1966" t="s">
+        <v>3902</v>
+      </c>
+      <c r="B1966" t="s">
         <v>3903</v>
-      </c>
-      <c r="B1966" t="s">
-        <v>3904</v>
       </c>
     </row>
     <row r="1967" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1967" t="s">
+        <v>3904</v>
+      </c>
+      <c r="B1967" t="s">
         <v>3905</v>
-      </c>
-      <c r="B1967" t="s">
-        <v>3906</v>
       </c>
     </row>
     <row r="1968" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1968" t="s">
+        <v>3906</v>
+      </c>
+      <c r="B1968" t="s">
         <v>3907</v>
-      </c>
-      <c r="B1968" t="s">
-        <v>3908</v>
       </c>
     </row>
     <row r="1969" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1969" t="s">
+        <v>3908</v>
+      </c>
+      <c r="B1969" t="s">
         <v>3909</v>
-      </c>
-      <c r="B1969" t="s">
-        <v>3910</v>
       </c>
     </row>
     <row r="1970" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1970" t="s">
+        <v>3910</v>
+      </c>
+      <c r="B1970" t="s">
         <v>3911</v>
-      </c>
-      <c r="B1970" t="s">
-        <v>3912</v>
       </c>
     </row>
     <row r="1971" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1971" t="s">
+        <v>3912</v>
+      </c>
+      <c r="B1971" t="s">
         <v>3913</v>
-      </c>
-      <c r="B1971" t="s">
-        <v>3914</v>
       </c>
     </row>
     <row r="1972" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1972" t="s">
+        <v>3914</v>
+      </c>
+      <c r="B1972" t="s">
         <v>3915</v>
-      </c>
-      <c r="B1972" t="s">
-        <v>3916</v>
       </c>
     </row>
     <row r="1973" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1973" t="s">
+        <v>3916</v>
+      </c>
+      <c r="B1973" t="s">
         <v>3917</v>
-      </c>
-      <c r="B1973" t="s">
-        <v>3918</v>
       </c>
     </row>
     <row r="1974" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1974" t="s">
+        <v>3918</v>
+      </c>
+      <c r="B1974" t="s">
         <v>3919</v>
-      </c>
-      <c r="B1974" t="s">
-        <v>3920</v>
       </c>
     </row>
     <row r="1975" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1975" t="s">
+        <v>3920</v>
+      </c>
+      <c r="B1975" t="s">
         <v>3921</v>
-      </c>
-      <c r="B1975" t="s">
-        <v>3922</v>
       </c>
     </row>
     <row r="1976" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1976" t="s">
+        <v>3922</v>
+      </c>
+      <c r="B1976" t="s">
         <v>3923</v>
-      </c>
-      <c r="B1976" t="s">
-        <v>3924</v>
       </c>
     </row>
     <row r="1977" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1977" t="s">
+        <v>3924</v>
+      </c>
+      <c r="B1977" t="s">
         <v>3925</v>
-      </c>
-      <c r="B1977" t="s">
-        <v>3926</v>
       </c>
     </row>
     <row r="1978" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1978" t="s">
+        <v>3926</v>
+      </c>
+      <c r="B1978" t="s">
         <v>3927</v>
-      </c>
-      <c r="B1978" t="s">
-        <v>3928</v>
       </c>
     </row>
     <row r="1979" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1979" t="s">
+        <v>3928</v>
+      </c>
+      <c r="B1979" t="s">
         <v>3929</v>
-      </c>
-      <c r="B1979" t="s">
-        <v>3930</v>
       </c>
     </row>
     <row r="1980" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1980" t="s">
+        <v>3930</v>
+      </c>
+      <c r="B1980" t="s">
         <v>3931</v>
-      </c>
-      <c r="B1980" t="s">
-        <v>3932</v>
       </c>
     </row>
     <row r="1981" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1981" t="s">
+        <v>3932</v>
+      </c>
+      <c r="B1981" t="s">
         <v>3933</v>
-      </c>
-      <c r="B1981" t="s">
-        <v>3934</v>
       </c>
     </row>
     <row r="1982" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1982" t="s">
+        <v>3934</v>
+      </c>
+      <c r="B1982" t="s">
         <v>3935</v>
-      </c>
-      <c r="B1982" t="s">
-        <v>3936</v>
       </c>
     </row>
     <row r="1983" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1983" t="s">
+        <v>3936</v>
+      </c>
+      <c r="B1983" t="s">
         <v>3937</v>
-      </c>
-      <c r="B1983" t="s">
-        <v>3938</v>
       </c>
     </row>
     <row r="1984" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1984" t="s">
+        <v>3938</v>
+      </c>
+      <c r="B1984" t="s">
         <v>3939</v>
-      </c>
-      <c r="B1984" t="s">
-        <v>3940</v>
       </c>
     </row>
     <row r="1985" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1985" t="s">
+        <v>3940</v>
+      </c>
+      <c r="B1985" t="s">
         <v>3941</v>
-      </c>
-      <c r="B1985" t="s">
-        <v>3942</v>
       </c>
     </row>
     <row r="1986" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1986" t="s">
+        <v>3942</v>
+      </c>
+      <c r="B1986" t="s">
         <v>3943</v>
-      </c>
-      <c r="B1986" t="s">
-        <v>3944</v>
       </c>
     </row>
     <row r="1987" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1987" t="s">
+        <v>3944</v>
+      </c>
+      <c r="B1987" t="s">
         <v>3945</v>
-      </c>
-      <c r="B1987" t="s">
-        <v>3946</v>
       </c>
     </row>
     <row r="1988" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1988" t="s">
+        <v>3946</v>
+      </c>
+      <c r="B1988" t="s">
         <v>3947</v>
-      </c>
-      <c r="B1988" t="s">
-        <v>3948</v>
       </c>
     </row>
     <row r="1989" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1989" t="s">
+        <v>3948</v>
+      </c>
+      <c r="B1989" t="s">
         <v>3949</v>
-      </c>
-      <c r="B1989" t="s">
-        <v>3950</v>
       </c>
     </row>
     <row r="1990" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1990" t="s">
+        <v>3950</v>
+      </c>
+      <c r="B1990" t="s">
         <v>3951</v>
-      </c>
-      <c r="B1990" t="s">
-        <v>3952</v>
       </c>
     </row>
     <row r="1991" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1991" t="s">
+        <v>3952</v>
+      </c>
+      <c r="B1991" t="s">
         <v>3953</v>
-      </c>
-      <c r="B1991" t="s">
-        <v>3954</v>
       </c>
     </row>
     <row r="1992" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1992" t="s">
+        <v>3954</v>
+      </c>
+      <c r="B1992" t="s">
         <v>3955</v>
-      </c>
-      <c r="B1992" t="s">
-        <v>3956</v>
       </c>
     </row>
     <row r="1993" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1993" t="s">
+        <v>3956</v>
+      </c>
+      <c r="B1993" t="s">
         <v>3957</v>
-      </c>
-      <c r="B1993" t="s">
-        <v>3958</v>
       </c>
     </row>
     <row r="1994" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1994" t="s">
+        <v>3958</v>
+      </c>
+      <c r="B1994" t="s">
         <v>3959</v>
-      </c>
-      <c r="B1994" t="s">
-        <v>3960</v>
       </c>
     </row>
     <row r="1995" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1995" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B1995" t="s">
         <v>3961</v>
-      </c>
-      <c r="B1995" t="s">
-        <v>3962</v>
       </c>
     </row>
     <row r="1996" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1996" t="s">
+        <v>3962</v>
+      </c>
+      <c r="B1996" t="s">
         <v>3963</v>
-      </c>
-      <c r="B1996" t="s">
-        <v>3964</v>
       </c>
     </row>
     <row r="1997" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1997" t="s">
+        <v>3964</v>
+      </c>
+      <c r="B1997" t="s">
         <v>3965</v>
-      </c>
-      <c r="B1997" t="s">
-        <v>3966</v>
       </c>
     </row>
     <row r="1998" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1998" t="s">
+        <v>3966</v>
+      </c>
+      <c r="B1998" t="s">
         <v>3967</v>
-      </c>
-      <c r="B1998" t="s">
-        <v>3968</v>
       </c>
     </row>
     <row r="1999" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1999" t="s">
+        <v>3968</v>
+      </c>
+      <c r="B1999" t="s">
         <v>3969</v>
-      </c>
-      <c r="B1999" t="s">
-        <v>3970</v>
       </c>
     </row>
     <row r="2000" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2000" t="s">
+        <v>3970</v>
+      </c>
+      <c r="B2000" t="s">
         <v>3971</v>
-      </c>
-      <c r="B2000" t="s">
-        <v>3972</v>
       </c>
     </row>
     <row r="2001" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2001" t="s">
+        <v>3972</v>
+      </c>
+      <c r="B2001" t="s">
         <v>3973</v>
-      </c>
-      <c r="B2001" t="s">
-        <v>3974</v>
       </c>
     </row>
     <row r="2002" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2002" t="s">
+        <v>3974</v>
+      </c>
+      <c r="B2002" t="s">
         <v>3975</v>
-      </c>
-      <c r="B2002" t="s">
-        <v>3976</v>
       </c>
     </row>
     <row r="2003" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2003" t="s">
+        <v>3976</v>
+      </c>
+      <c r="B2003" t="s">
         <v>3977</v>
-      </c>
-      <c r="B2003" t="s">
-        <v>3978</v>
       </c>
     </row>
     <row r="2004" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2004" t="s">
+        <v>3978</v>
+      </c>
+      <c r="B2004" t="s">
         <v>3979</v>
-      </c>
-      <c r="B2004" t="s">
-        <v>3980</v>
       </c>
     </row>
     <row r="2005" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2005" t="s">
+        <v>3980</v>
+      </c>
+      <c r="B2005" t="s">
         <v>3981</v>
-      </c>
-      <c r="B2005" t="s">
-        <v>3982</v>
       </c>
     </row>
     <row r="2006" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2006" t="s">
+        <v>3982</v>
+      </c>
+      <c r="B2006" t="s">
         <v>3983</v>
-      </c>
-      <c r="B2006" t="s">
-        <v>3984</v>
       </c>
     </row>
     <row r="2007" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2007" t="s">
+        <v>3984</v>
+      </c>
+      <c r="B2007" t="s">
         <v>3985</v>
-      </c>
-      <c r="B2007" t="s">
-        <v>3986</v>
       </c>
     </row>
     <row r="2008" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2008" t="s">
+        <v>3986</v>
+      </c>
+      <c r="B2008" t="s">
         <v>3987</v>
-      </c>
-      <c r="B2008" t="s">
-        <v>3988</v>
       </c>
     </row>
     <row r="2009" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2009" t="s">
+        <v>3988</v>
+      </c>
+      <c r="B2009" t="s">
         <v>3989</v>
-      </c>
-      <c r="B2009" t="s">
-        <v>3990</v>
       </c>
     </row>
     <row r="2010" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2010" t="s">
+        <v>3990</v>
+      </c>
+      <c r="B2010" t="s">
         <v>3991</v>
-      </c>
-      <c r="B2010" t="s">
-        <v>3992</v>
       </c>
     </row>
     <row r="2011" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2011" t="s">
+        <v>3992</v>
+      </c>
+      <c r="B2011" t="s">
         <v>3993</v>
-      </c>
-      <c r="B2011" t="s">
-        <v>3994</v>
       </c>
     </row>
     <row r="2012" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2012" t="s">
+        <v>3994</v>
+      </c>
+      <c r="B2012" t="s">
         <v>3995</v>
-      </c>
-      <c r="B2012" t="s">
-        <v>3996</v>
       </c>
     </row>
     <row r="2013" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2013" t="s">
+        <v>3996</v>
+      </c>
+      <c r="B2013" t="s">
         <v>3997</v>
-      </c>
-      <c r="B2013" t="s">
-        <v>3998</v>
       </c>
     </row>
     <row r="2014" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2014" t="s">
+        <v>3998</v>
+      </c>
+      <c r="B2014" t="s">
         <v>3999</v>
-      </c>
-      <c r="B2014" t="s">
-        <v>4000</v>
       </c>
     </row>
     <row r="2015" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2015" t="s">
+        <v>4000</v>
+      </c>
+      <c r="B2015" t="s">
         <v>4001</v>
-      </c>
-      <c r="B2015" t="s">
-        <v>4002</v>
       </c>
     </row>
     <row r="2016" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2016" t="s">
+        <v>4002</v>
+      </c>
+      <c r="B2016" t="s">
         <v>4003</v>
-      </c>
-      <c r="B2016" t="s">
-        <v>4004</v>
       </c>
     </row>
     <row r="2017" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2017" t="s">
+        <v>4004</v>
+      </c>
+      <c r="B2017" t="s">
         <v>4005</v>
-      </c>
-      <c r="B2017" t="s">
-        <v>4006</v>
       </c>
     </row>
     <row r="2018" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2018" t="s">
+        <v>4006</v>
+      </c>
+      <c r="B2018" t="s">
         <v>4007</v>
-      </c>
-      <c r="B2018" t="s">
-        <v>4008</v>
       </c>
     </row>
     <row r="2019" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2019" t="s">
+        <v>4008</v>
+      </c>
+      <c r="B2019" t="s">
         <v>4009</v>
-      </c>
-      <c r="B2019" t="s">
-        <v>4010</v>
       </c>
     </row>
     <row r="2020" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2020" t="s">
+        <v>4010</v>
+      </c>
+      <c r="B2020" t="s">
         <v>4011</v>
-      </c>
-      <c r="B2020" t="s">
-        <v>4012</v>
       </c>
     </row>
     <row r="2021" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2021" t="s">
+        <v>4012</v>
+      </c>
+      <c r="B2021" t="s">
         <v>4013</v>
-      </c>
-      <c r="B2021" t="s">
-        <v>4014</v>
       </c>
     </row>
     <row r="2022" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2022" t="s">
+        <v>4014</v>
+      </c>
+      <c r="B2022" t="s">
         <v>4015</v>
-      </c>
-      <c r="B2022" t="s">
-        <v>4016</v>
       </c>
     </row>
     <row r="2023" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2023" t="s">
+        <v>4016</v>
+      </c>
+      <c r="B2023" t="s">
         <v>4017</v>
-      </c>
-      <c r="B2023" t="s">
-        <v>4018</v>
       </c>
     </row>
     <row r="2024" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2024" t="s">
+        <v>4018</v>
+      </c>
+      <c r="B2024" t="s">
         <v>4019</v>
-      </c>
-      <c r="B2024" t="s">
-        <v>4020</v>
       </c>
     </row>
     <row r="2025" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2025" t="s">
+        <v>4020</v>
+      </c>
+      <c r="B2025" t="s">
         <v>4021</v>
-      </c>
-      <c r="B2025" t="s">
-        <v>4022</v>
       </c>
     </row>
     <row r="2026" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2026" t="s">
+        <v>4022</v>
+      </c>
+      <c r="B2026" t="s">
         <v>4023</v>
-      </c>
-      <c r="B2026" t="s">
-        <v>4024</v>
       </c>
     </row>
     <row r="2027" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2027" t="s">
+        <v>4024</v>
+      </c>
+      <c r="B2027" t="s">
         <v>4025</v>
-      </c>
-      <c r="B2027" t="s">
-        <v>4026</v>
       </c>
     </row>
     <row r="2028" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2028" t="s">
+        <v>4026</v>
+      </c>
+      <c r="B2028" t="s">
         <v>4027</v>
-      </c>
-      <c r="B2028" t="s">
-        <v>4028</v>
       </c>
     </row>
     <row r="2029" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2029" t="s">
+        <v>4028</v>
+      </c>
+      <c r="B2029" t="s">
         <v>4029</v>
-      </c>
-      <c r="B2029" t="s">
-        <v>4030</v>
       </c>
     </row>
     <row r="2030" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2030" t="s">
+        <v>4030</v>
+      </c>
+      <c r="B2030" t="s">
         <v>4031</v>
-      </c>
-      <c r="B2030" t="s">
-        <v>4032</v>
       </c>
     </row>
     <row r="2031" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2031" t="s">
+        <v>4032</v>
+      </c>
+      <c r="B2031" t="s">
         <v>4033</v>
-      </c>
-      <c r="B2031" t="s">
-        <v>4034</v>
       </c>
     </row>
     <row r="2032" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2032" t="s">
+        <v>4034</v>
+      </c>
+      <c r="B2032" t="s">
         <v>4035</v>
-      </c>
-      <c r="B2032" t="s">
-        <v>4036</v>
       </c>
     </row>
     <row r="2033" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2033" t="s">
+        <v>4036</v>
+      </c>
+      <c r="B2033" t="s">
         <v>4037</v>
-      </c>
-      <c r="B2033" t="s">
-        <v>4038</v>
       </c>
     </row>
     <row r="2034" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2034" t="s">
+        <v>4038</v>
+      </c>
+      <c r="B2034" t="s">
         <v>4039</v>
-      </c>
-      <c r="B2034" t="s">
-        <v>4040</v>
       </c>
     </row>
     <row r="2035" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2035" t="s">
+        <v>4040</v>
+      </c>
+      <c r="B2035" t="s">
         <v>4041</v>
-      </c>
-      <c r="B2035" t="s">
-        <v>4042</v>
       </c>
     </row>
     <row r="2036" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2036" t="s">
+        <v>4042</v>
+      </c>
+      <c r="B2036" t="s">
         <v>4043</v>
-      </c>
-      <c r="B2036" t="s">
-        <v>4044</v>
       </c>
     </row>
     <row r="2037" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2037" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B2037" t="s">
         <v>4045</v>
-      </c>
-      <c r="B2037" t="s">
-        <v>4046</v>
       </c>
     </row>
     <row r="2038" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2038" t="s">
-        <v>4047</v>
+        <v>4046</v>
       </c>
       <c r="B2038" t="s">
-        <v>4589</v>
+        <v>4588</v>
       </c>
     </row>
     <row r="2039" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2039" t="s">
+        <v>4047</v>
+      </c>
+      <c r="B2039" t="s">
         <v>4048</v>
-      </c>
-      <c r="B2039" t="s">
-        <v>4049</v>
       </c>
     </row>
     <row r="2040" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2040" t="s">
+        <v>4049</v>
+      </c>
+      <c r="B2040" t="s">
         <v>4050</v>
-      </c>
-      <c r="B2040" t="s">
-        <v>4051</v>
       </c>
     </row>
     <row r="2041" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2041" t="s">
+        <v>4051</v>
+      </c>
+      <c r="B2041" t="s">
         <v>4052</v>
-      </c>
-      <c r="B2041" t="s">
-        <v>4053</v>
       </c>
     </row>
     <row r="2042" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2042" t="s">
+        <v>4053</v>
+      </c>
+      <c r="B2042" t="s">
         <v>4054</v>
-      </c>
-      <c r="B2042" t="s">
-        <v>4055</v>
       </c>
     </row>
     <row r="2043" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2043" t="s">
+        <v>4055</v>
+      </c>
+      <c r="B2043" t="s">
         <v>4056</v>
-      </c>
-      <c r="B2043" t="s">
-        <v>4057</v>
       </c>
     </row>
     <row r="2044" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2044" t="s">
+        <v>4057</v>
+      </c>
+      <c r="B2044" t="s">
         <v>4058</v>
-      </c>
-      <c r="B2044" t="s">
-        <v>4059</v>
       </c>
     </row>
     <row r="2045" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2045" t="s">
+        <v>4059</v>
+      </c>
+      <c r="B2045" t="s">
         <v>4060</v>
-      </c>
-      <c r="B2045" t="s">
-        <v>4061</v>
       </c>
     </row>
     <row r="2046" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2046" t="s">
+        <v>4061</v>
+      </c>
+      <c r="B2046" t="s">
         <v>4062</v>
-      </c>
-      <c r="B2046" t="s">
-        <v>4063</v>
       </c>
     </row>
     <row r="2047" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2047" t="s">
+        <v>4063</v>
+      </c>
+      <c r="B2047" t="s">
         <v>4064</v>
-      </c>
-      <c r="B2047" t="s">
-        <v>4065</v>
       </c>
     </row>
     <row r="2048" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2048" t="s">
+        <v>4065</v>
+      </c>
+      <c r="B2048" t="s">
         <v>4066</v>
-      </c>
-      <c r="B2048" t="s">
-        <v>4067</v>
       </c>
     </row>
     <row r="2049" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2049" t="s">
+        <v>4067</v>
+      </c>
+      <c r="B2049" t="s">
         <v>4068</v>
-      </c>
-      <c r="B2049" t="s">
-        <v>4069</v>
       </c>
     </row>
     <row r="2050" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2050" t="s">
+        <v>4069</v>
+      </c>
+      <c r="B2050" t="s">
         <v>4070</v>
-      </c>
-      <c r="B2050" t="s">
-        <v>4071</v>
       </c>
     </row>
     <row r="2051" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2051" t="s">
+        <v>4071</v>
+      </c>
+      <c r="B2051" t="s">
         <v>4072</v>
-      </c>
-      <c r="B2051" t="s">
-        <v>4073</v>
       </c>
     </row>
     <row r="2052" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2052" t="s">
+        <v>4073</v>
+      </c>
+      <c r="B2052" t="s">
         <v>4074</v>
-      </c>
-      <c r="B2052" t="s">
-        <v>4075</v>
       </c>
     </row>
     <row r="2053" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2053" t="s">
+        <v>4075</v>
+      </c>
+      <c r="B2053" t="s">
         <v>4076</v>
-      </c>
-      <c r="B2053" t="s">
-        <v>4077</v>
       </c>
     </row>
     <row r="2054" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2054" t="s">
+        <v>4077</v>
+      </c>
+      <c r="B2054" t="s">
         <v>4078</v>
-      </c>
-      <c r="B2054" t="s">
-        <v>4079</v>
       </c>
     </row>
     <row r="2055" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2055" t="s">
+        <v>4079</v>
+      </c>
+      <c r="B2055" t="s">
         <v>4080</v>
-      </c>
-      <c r="B2055" t="s">
-        <v>4081</v>
       </c>
     </row>
     <row r="2056" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2056" t="s">
-        <v>4082</v>
+        <v>4081</v>
       </c>
       <c r="B2056" t="s">
-        <v>4590</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="2057" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2057" t="s">
+        <v>4082</v>
+      </c>
+      <c r="B2057" t="s">
         <v>4083</v>
-      </c>
-      <c r="B2057" t="s">
-        <v>4084</v>
       </c>
     </row>
     <row r="2058" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2058" t="s">
-        <v>4085</v>
+        <v>4084</v>
       </c>
       <c r="B2058" t="s">
-        <v>4591</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="2059" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2059" t="s">
+        <v>4085</v>
+      </c>
+      <c r="B2059" t="s">
         <v>4086</v>
-      </c>
-      <c r="B2059" t="s">
-        <v>4087</v>
       </c>
     </row>
     <row r="2060" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2060" t="s">
+        <v>4087</v>
+      </c>
+      <c r="B2060" t="s">
         <v>4088</v>
-      </c>
-      <c r="B2060" t="s">
-        <v>4089</v>
       </c>
     </row>
     <row r="2061" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2061" t="s">
+        <v>4089</v>
+      </c>
+      <c r="B2061" t="s">
         <v>4090</v>
-      </c>
-      <c r="B2061" t="s">
-        <v>4091</v>
       </c>
     </row>
     <row r="2062" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2062" t="s">
+        <v>4091</v>
+      </c>
+      <c r="B2062" t="s">
         <v>4092</v>
-      </c>
-      <c r="B2062" t="s">
-        <v>4093</v>
       </c>
     </row>
     <row r="2063" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2063" t="s">
+        <v>4093</v>
+      </c>
+      <c r="B2063" t="s">
         <v>4094</v>
-      </c>
-      <c r="B2063" t="s">
-        <v>4095</v>
       </c>
     </row>
     <row r="2064" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2064" t="s">
+        <v>4095</v>
+      </c>
+      <c r="B2064" t="s">
         <v>4096</v>
-      </c>
-      <c r="B2064" t="s">
-        <v>4097</v>
       </c>
     </row>
     <row r="2065" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2065" t="s">
+        <v>4097</v>
+      </c>
+      <c r="B2065" t="s">
         <v>4098</v>
-      </c>
-      <c r="B2065" t="s">
-        <v>4099</v>
       </c>
     </row>
     <row r="2066" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2066" t="s">
+        <v>4099</v>
+      </c>
+      <c r="B2066" t="s">
         <v>4100</v>
-      </c>
-      <c r="B2066" t="s">
-        <v>4101</v>
       </c>
     </row>
     <row r="2067" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2067" t="s">
+        <v>4101</v>
+      </c>
+      <c r="B2067" t="s">
         <v>4102</v>
-      </c>
-      <c r="B2067" t="s">
-        <v>4103</v>
       </c>
     </row>
     <row r="2068" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2068" t="s">
+        <v>4103</v>
+      </c>
+      <c r="B2068" t="s">
         <v>4104</v>
-      </c>
-      <c r="B2068" t="s">
-        <v>4105</v>
       </c>
     </row>
     <row r="2069" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2069" t="s">
+        <v>4105</v>
+      </c>
+      <c r="B2069" t="s">
         <v>4106</v>
-      </c>
-      <c r="B2069" t="s">
-        <v>4107</v>
       </c>
     </row>
     <row r="2070" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2070" t="s">
+        <v>4107</v>
+      </c>
+      <c r="B2070" t="s">
         <v>4108</v>
-      </c>
-      <c r="B2070" t="s">
-        <v>4109</v>
       </c>
     </row>
     <row r="2071" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2071" t="s">
+        <v>4109</v>
+      </c>
+      <c r="B2071" t="s">
         <v>4110</v>
-      </c>
-      <c r="B2071" t="s">
-        <v>4111</v>
       </c>
     </row>
     <row r="2072" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2072" t="s">
+        <v>4111</v>
+      </c>
+      <c r="B2072" t="s">
         <v>4112</v>
-      </c>
-      <c r="B2072" t="s">
-        <v>4113</v>
       </c>
     </row>
     <row r="2073" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2073" t="s">
+        <v>4113</v>
+      </c>
+      <c r="B2073" t="s">
         <v>4114</v>
-      </c>
-      <c r="B2073" t="s">
-        <v>4115</v>
       </c>
     </row>
     <row r="2074" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2074" t="s">
+        <v>4115</v>
+      </c>
+      <c r="B2074" t="s">
         <v>4116</v>
-      </c>
-      <c r="B2074" t="s">
-        <v>4117</v>
       </c>
     </row>
     <row r="2075" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2075" t="s">
+        <v>4117</v>
+      </c>
+      <c r="B2075" t="s">
         <v>4118</v>
-      </c>
-      <c r="B2075" t="s">
-        <v>4119</v>
       </c>
     </row>
     <row r="2076" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2076" t="s">
+        <v>4119</v>
+      </c>
+      <c r="B2076" t="s">
         <v>4120</v>
-      </c>
-      <c r="B2076" t="s">
-        <v>4121</v>
       </c>
     </row>
     <row r="2077" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2077" t="s">
+        <v>4121</v>
+      </c>
+      <c r="B2077" t="s">
         <v>4122</v>
-      </c>
-      <c r="B2077" t="s">
-        <v>4123</v>
       </c>
     </row>
     <row r="2078" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2078" t="s">
+        <v>4123</v>
+      </c>
+      <c r="B2078" t="s">
         <v>4124</v>
-      </c>
-      <c r="B2078" t="s">
-        <v>4125</v>
       </c>
     </row>
     <row r="2079" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2079" t="s">
+        <v>4125</v>
+      </c>
+      <c r="B2079" t="s">
         <v>4126</v>
-      </c>
-      <c r="B2079" t="s">
-        <v>4127</v>
       </c>
     </row>
     <row r="2080" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2080" t="s">
+        <v>4127</v>
+      </c>
+      <c r="B2080" t="s">
         <v>4128</v>
-      </c>
-      <c r="B2080" t="s">
-        <v>4129</v>
       </c>
     </row>
     <row r="2081" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2081" t="s">
+        <v>4129</v>
+      </c>
+      <c r="B2081" t="s">
         <v>4130</v>
-      </c>
-      <c r="B2081" t="s">
-        <v>4131</v>
       </c>
     </row>
     <row r="2082" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2082" t="s">
+        <v>4131</v>
+      </c>
+      <c r="B2082" t="s">
         <v>4132</v>
-      </c>
-      <c r="B2082" t="s">
-        <v>4133</v>
       </c>
     </row>
     <row r="2083" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2083" t="s">
+        <v>4133</v>
+      </c>
+      <c r="B2083" t="s">
         <v>4134</v>
-      </c>
-      <c r="B2083" t="s">
-        <v>4135</v>
       </c>
     </row>
     <row r="2084" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2084" t="s">
+        <v>4135</v>
+      </c>
+      <c r="B2084" t="s">
         <v>4136</v>
-      </c>
-      <c r="B2084" t="s">
-        <v>4137</v>
       </c>
     </row>
     <row r="2085" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2085" t="s">
+        <v>4137</v>
+      </c>
+      <c r="B2085" t="s">
         <v>4138</v>
-      </c>
-      <c r="B2085" t="s">
-        <v>4139</v>
       </c>
     </row>
     <row r="2086" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2086" t="s">
+        <v>4139</v>
+      </c>
+      <c r="B2086" t="s">
         <v>4140</v>
-      </c>
-      <c r="B2086" t="s">
-        <v>4141</v>
       </c>
     </row>
     <row r="2087" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2087" t="s">
+        <v>4141</v>
+      </c>
+      <c r="B2087" t="s">
         <v>4142</v>
-      </c>
-      <c r="B2087" t="s">
-        <v>4143</v>
       </c>
     </row>
     <row r="2088" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2088" t="s">
+        <v>4143</v>
+      </c>
+      <c r="B2088" t="s">
         <v>4144</v>
-      </c>
-      <c r="B2088" t="s">
-        <v>4145</v>
       </c>
     </row>
     <row r="2089" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2089" t="s">
+        <v>4145</v>
+      </c>
+      <c r="B2089" t="s">
         <v>4146</v>
-      </c>
-      <c r="B2089" t="s">
-        <v>4147</v>
       </c>
     </row>
     <row r="2090" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2090" t="s">
+        <v>4147</v>
+      </c>
+      <c r="B2090" t="s">
         <v>4148</v>
-      </c>
-      <c r="B2090" t="s">
-        <v>4149</v>
       </c>
     </row>
     <row r="2091" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2091" t="s">
+        <v>4149</v>
+      </c>
+      <c r="B2091" t="s">
         <v>4150</v>
-      </c>
-      <c r="B2091" t="s">
-        <v>4151</v>
       </c>
     </row>
     <row r="2092" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2092" t="s">
+        <v>4151</v>
+      </c>
+      <c r="B2092" t="s">
         <v>4152</v>
-      </c>
-      <c r="B2092" t="s">
-        <v>4153</v>
       </c>
     </row>
     <row r="2093" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2093" t="s">
+        <v>4153</v>
+      </c>
+      <c r="B2093" t="s">
         <v>4154</v>
-      </c>
-      <c r="B2093" t="s">
-        <v>4155</v>
       </c>
     </row>
     <row r="2094" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2094" t="s">
+        <v>4155</v>
+      </c>
+      <c r="B2094" t="s">
         <v>4156</v>
-      </c>
-      <c r="B2094" t="s">
-        <v>4157</v>
       </c>
     </row>
     <row r="2095" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2095" t="s">
+        <v>4157</v>
+      </c>
+      <c r="B2095" t="s">
         <v>4158</v>
-      </c>
-      <c r="B2095" t="s">
-        <v>4159</v>
       </c>
     </row>
     <row r="2096" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2096" t="s">
+        <v>4159</v>
+      </c>
+      <c r="B2096" t="s">
         <v>4160</v>
-      </c>
-      <c r="B2096" t="s">
-        <v>4161</v>
       </c>
     </row>
     <row r="2097" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2097" t="s">
+        <v>4161</v>
+      </c>
+      <c r="B2097" t="s">
         <v>4162</v>
-      </c>
-      <c r="B2097" t="s">
-        <v>4163</v>
       </c>
     </row>
     <row r="2098" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2098" t="s">
+        <v>4163</v>
+      </c>
+      <c r="B2098" t="s">
         <v>4164</v>
-      </c>
-      <c r="B2098" t="s">
-        <v>4165</v>
       </c>
     </row>
     <row r="2099" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2099" t="s">
+        <v>4165</v>
+      </c>
+      <c r="B2099" t="s">
         <v>4166</v>
-      </c>
-      <c r="B2099" t="s">
-        <v>4167</v>
       </c>
     </row>
     <row r="2100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2100" t="s">
+        <v>4167</v>
+      </c>
+      <c r="B2100" t="s">
         <v>4168</v>
-      </c>
-      <c r="B2100" t="s">
-        <v>4169</v>
       </c>
     </row>
     <row r="2101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2101" t="s">
+        <v>4169</v>
+      </c>
+      <c r="B2101" t="s">
         <v>4170</v>
-      </c>
-      <c r="B2101" t="s">
-        <v>4171</v>
       </c>
     </row>
     <row r="2102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2102" t="s">
+        <v>4171</v>
+      </c>
+      <c r="B2102" t="s">
         <v>4172</v>
-      </c>
-      <c r="B2102" t="s">
-        <v>4173</v>
       </c>
     </row>
     <row r="2103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2103" t="s">
-        <v>4174</v>
+        <v>4173</v>
       </c>
       <c r="B2103" t="s">
-        <v>4592</v>
+        <v>4591</v>
       </c>
     </row>
     <row r="2104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2104" t="s">
+        <v>4174</v>
+      </c>
+      <c r="B2104" t="s">
         <v>4175</v>
-      </c>
-      <c r="B2104" t="s">
-        <v>4176</v>
       </c>
     </row>
     <row r="2105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2105" t="s">
+        <v>4176</v>
+      </c>
+      <c r="B2105" t="s">
         <v>4177</v>
-      </c>
-      <c r="B2105" t="s">
-        <v>4178</v>
       </c>
     </row>
     <row r="2106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2106" t="s">
+        <v>4178</v>
+      </c>
+      <c r="B2106" t="s">
         <v>4179</v>
-      </c>
-      <c r="B2106" t="s">
-        <v>4180</v>
       </c>
     </row>
     <row r="2107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2107" t="s">
+        <v>4180</v>
+      </c>
+      <c r="B2107" t="s">
         <v>4181</v>
-      </c>
-      <c r="B2107" t="s">
-        <v>4182</v>
       </c>
     </row>
     <row r="2108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2108" t="s">
+        <v>4182</v>
+      </c>
+      <c r="B2108" t="s">
         <v>4183</v>
-      </c>
-      <c r="B2108" t="s">
-        <v>4184</v>
       </c>
     </row>
     <row r="2109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2109" t="s">
+        <v>4184</v>
+      </c>
+      <c r="B2109" t="s">
         <v>4185</v>
-      </c>
-      <c r="B2109" t="s">
-        <v>4186</v>
       </c>
     </row>
     <row r="2110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2110" t="s">
+        <v>4186</v>
+      </c>
+      <c r="B2110" t="s">
         <v>4187</v>
-      </c>
-      <c r="B2110" t="s">
-        <v>4188</v>
       </c>
     </row>
     <row r="2111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2111" t="s">
+        <v>4188</v>
+      </c>
+      <c r="B2111" t="s">
         <v>4189</v>
-      </c>
-      <c r="B2111" t="s">
-        <v>4190</v>
       </c>
     </row>
     <row r="2112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2112" t="s">
+        <v>4190</v>
+      </c>
+      <c r="B2112" t="s">
         <v>4191</v>
-      </c>
-      <c r="B2112" t="s">
-        <v>4192</v>
       </c>
     </row>
     <row r="2113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2113" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B2113" t="s">
         <v>4193</v>
-      </c>
-      <c r="B2113" t="s">
-        <v>4194</v>
       </c>
     </row>
     <row r="2114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2114" t="s">
+        <v>4194</v>
+      </c>
+      <c r="B2114" t="s">
         <v>4195</v>
-      </c>
-      <c r="B2114" t="s">
-        <v>4196</v>
       </c>
     </row>
     <row r="2115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2115" t="s">
+        <v>4196</v>
+      </c>
+      <c r="B2115" t="s">
         <v>4197</v>
-      </c>
-      <c r="B2115" t="s">
-        <v>4198</v>
       </c>
     </row>
     <row r="2116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2116" t="s">
+        <v>4198</v>
+      </c>
+      <c r="B2116" t="s">
         <v>4199</v>
-      </c>
-      <c r="B2116" t="s">
-        <v>4200</v>
       </c>
     </row>
     <row r="2117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2117" t="s">
+        <v>4200</v>
+      </c>
+      <c r="B2117" t="s">
         <v>4201</v>
-      </c>
-      <c r="B2117" t="s">
-        <v>4202</v>
       </c>
     </row>
     <row r="2118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2118" t="s">
+        <v>4202</v>
+      </c>
+      <c r="B2118" t="s">
         <v>4203</v>
-      </c>
-      <c r="B2118" t="s">
-        <v>4204</v>
       </c>
     </row>
     <row r="2119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2119" t="s">
+        <v>4204</v>
+      </c>
+      <c r="B2119" t="s">
         <v>4205</v>
-      </c>
-      <c r="B2119" t="s">
-        <v>4206</v>
       </c>
     </row>
     <row r="2120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2120" t="s">
+        <v>4206</v>
+      </c>
+      <c r="B2120" t="s">
         <v>4207</v>
-      </c>
-      <c r="B2120" t="s">
-        <v>4208</v>
       </c>
     </row>
     <row r="2121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2121" t="s">
+        <v>4208</v>
+      </c>
+      <c r="B2121" t="s">
         <v>4209</v>
-      </c>
-      <c r="B2121" t="s">
-        <v>4210</v>
       </c>
     </row>
     <row r="2122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2122" t="s">
+        <v>4210</v>
+      </c>
+      <c r="B2122" t="s">
         <v>4211</v>
-      </c>
-      <c r="B2122" t="s">
-        <v>4212</v>
       </c>
     </row>
     <row r="2123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2123" t="s">
+        <v>4212</v>
+      </c>
+      <c r="B2123" t="s">
         <v>4213</v>
-      </c>
-      <c r="B2123" t="s">
-        <v>4214</v>
       </c>
     </row>
     <row r="2124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2124" t="s">
+        <v>4214</v>
+      </c>
+      <c r="B2124" t="s">
         <v>4215</v>
-      </c>
-      <c r="B2124" t="s">
-        <v>4216</v>
       </c>
     </row>
     <row r="2125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2125" t="s">
+        <v>4216</v>
+      </c>
+      <c r="B2125" t="s">
         <v>4217</v>
-      </c>
-      <c r="B2125" t="s">
-        <v>4218</v>
       </c>
     </row>
     <row r="2126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2126" t="s">
+        <v>4218</v>
+      </c>
+      <c r="B2126" t="s">
         <v>4219</v>
-      </c>
-      <c r="B2126" t="s">
-        <v>4220</v>
       </c>
     </row>
     <row r="2127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2127" t="s">
+        <v>4220</v>
+      </c>
+      <c r="B2127" t="s">
         <v>4221</v>
-      </c>
-      <c r="B2127" t="s">
-        <v>4222</v>
       </c>
     </row>
     <row r="2128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2128" t="s">
+        <v>4222</v>
+      </c>
+      <c r="B2128" t="s">
         <v>4223</v>
-      </c>
-      <c r="B2128" t="s">
-        <v>4224</v>
       </c>
     </row>
     <row r="2129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2129" t="s">
+        <v>4224</v>
+      </c>
+      <c r="B2129" t="s">
         <v>4225</v>
-      </c>
-      <c r="B2129" t="s">
-        <v>4226</v>
       </c>
     </row>
     <row r="2130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2130" t="s">
+        <v>4226</v>
+      </c>
+      <c r="B2130" t="s">
         <v>4227</v>
-      </c>
-      <c r="B2130" t="s">
-        <v>4228</v>
       </c>
     </row>
     <row r="2131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2131" t="s">
+        <v>4228</v>
+      </c>
+      <c r="B2131" t="s">
         <v>4229</v>
-      </c>
-      <c r="B2131" t="s">
-        <v>4230</v>
       </c>
     </row>
     <row r="2132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2132" t="s">
+        <v>4230</v>
+      </c>
+      <c r="B2132" t="s">
         <v>4231</v>
-      </c>
-      <c r="B2132" t="s">
-        <v>4232</v>
       </c>
     </row>
     <row r="2133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2133" t="s">
+        <v>4232</v>
+      </c>
+      <c r="B2133" t="s">
         <v>4233</v>
-      </c>
-      <c r="B2133" t="s">
-        <v>4234</v>
       </c>
     </row>
     <row r="2134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2134" t="s">
+        <v>4234</v>
+      </c>
+      <c r="B2134" t="s">
         <v>4235</v>
-      </c>
-      <c r="B2134" t="s">
-        <v>4236</v>
       </c>
     </row>
     <row r="2135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2135" t="s">
+        <v>4236</v>
+      </c>
+      <c r="B2135" t="s">
         <v>4237</v>
-      </c>
-      <c r="B2135" t="s">
-        <v>4238</v>
       </c>
     </row>
     <row r="2136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2136" t="s">
+        <v>4238</v>
+      </c>
+      <c r="B2136" t="s">
         <v>4239</v>
-      </c>
-      <c r="B2136" t="s">
-        <v>4240</v>
       </c>
     </row>
     <row r="2137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2137" t="s">
+        <v>4240</v>
+      </c>
+      <c r="B2137" t="s">
         <v>4241</v>
-      </c>
-      <c r="B2137" t="s">
-        <v>4242</v>
       </c>
     </row>
     <row r="2138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2138" t="s">
+        <v>4242</v>
+      </c>
+      <c r="B2138" t="s">
         <v>4243</v>
-      </c>
-      <c r="B2138" t="s">
-        <v>4244</v>
       </c>
     </row>
     <row r="2139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2139" t="s">
+        <v>4244</v>
+      </c>
+      <c r="B2139" t="s">
         <v>4245</v>
-      </c>
-      <c r="B2139" t="s">
-        <v>4246</v>
       </c>
     </row>
     <row r="2140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2140" t="s">
+        <v>4246</v>
+      </c>
+      <c r="B2140" t="s">
         <v>4247</v>
-      </c>
-      <c r="B2140" t="s">
-        <v>4248</v>
       </c>
     </row>
     <row r="2141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2141" t="s">
+        <v>4248</v>
+      </c>
+      <c r="B2141" t="s">
         <v>4249</v>
-      </c>
-      <c r="B2141" t="s">
-        <v>4250</v>
       </c>
     </row>
     <row r="2142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2142" t="s">
+        <v>4250</v>
+      </c>
+      <c r="B2142" t="s">
         <v>4251</v>
-      </c>
-      <c r="B2142" t="s">
-        <v>4252</v>
       </c>
     </row>
     <row r="2143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2143" t="s">
+        <v>4252</v>
+      </c>
+      <c r="B2143" t="s">
         <v>4253</v>
-      </c>
-      <c r="B2143" t="s">
-        <v>4254</v>
       </c>
     </row>
     <row r="2144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2144" t="s">
+        <v>4254</v>
+      </c>
+      <c r="B2144" t="s">
         <v>4255</v>
-      </c>
-      <c r="B2144" t="s">
-        <v>4256</v>
       </c>
     </row>
     <row r="2145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2145" t="s">
+        <v>4256</v>
+      </c>
+      <c r="B2145" t="s">
         <v>4257</v>
-      </c>
-      <c r="B2145" t="s">
-        <v>4258</v>
       </c>
     </row>
     <row r="2146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2146" t="s">
+        <v>4258</v>
+      </c>
+      <c r="B2146" t="s">
         <v>4259</v>
-      </c>
-      <c r="B2146" t="s">
-        <v>4260</v>
       </c>
     </row>
     <row r="2147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2147" t="s">
+        <v>4260</v>
+      </c>
+      <c r="B2147" t="s">
         <v>4261</v>
-      </c>
-      <c r="B2147" t="s">
-        <v>4262</v>
       </c>
     </row>
     <row r="2148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2148" t="s">
+        <v>4262</v>
+      </c>
+      <c r="B2148" t="s">
         <v>4263</v>
-      </c>
-      <c r="B2148" t="s">
-        <v>4264</v>
       </c>
     </row>
     <row r="2149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2149" t="s">
+        <v>4264</v>
+      </c>
+      <c r="B2149" t="s">
         <v>4265</v>
-      </c>
-      <c r="B2149" t="s">
-        <v>4266</v>
       </c>
     </row>
     <row r="2150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2150" t="s">
+        <v>4266</v>
+      </c>
+      <c r="B2150" t="s">
         <v>4267</v>
-      </c>
-      <c r="B2150" t="s">
-        <v>4268</v>
       </c>
     </row>
     <row r="2151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2151" t="s">
+        <v>4268</v>
+      </c>
+      <c r="B2151" t="s">
         <v>4269</v>
-      </c>
-      <c r="B2151" t="s">
-        <v>4270</v>
       </c>
     </row>
     <row r="2152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2152" t="s">
+        <v>4270</v>
+      </c>
+      <c r="B2152" t="s">
         <v>4271</v>
-      </c>
-      <c r="B2152" t="s">
-        <v>4272</v>
       </c>
     </row>
     <row r="2153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2153" t="s">
+        <v>4272</v>
+      </c>
+      <c r="B2153" t="s">
         <v>4273</v>
-      </c>
-      <c r="B2153" t="s">
-        <v>4274</v>
       </c>
     </row>
     <row r="2154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2154" t="s">
+        <v>4274</v>
+      </c>
+      <c r="B2154" t="s">
         <v>4275</v>
-      </c>
-      <c r="B2154" t="s">
-        <v>4276</v>
       </c>
     </row>
     <row r="2155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2155" t="s">
+        <v>4276</v>
+      </c>
+      <c r="B2155" t="s">
         <v>4277</v>
-      </c>
-      <c r="B2155" t="s">
-        <v>4278</v>
       </c>
     </row>
     <row r="2156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2156" t="s">
+        <v>4278</v>
+      </c>
+      <c r="B2156" t="s">
         <v>4279</v>
-      </c>
-      <c r="B2156" t="s">
-        <v>4280</v>
       </c>
     </row>
     <row r="2157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2157" t="s">
+        <v>4280</v>
+      </c>
+      <c r="B2157" t="s">
         <v>4281</v>
-      </c>
-      <c r="B2157" t="s">
-        <v>4282</v>
       </c>
     </row>
     <row r="2158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2158" t="s">
+        <v>4282</v>
+      </c>
+      <c r="B2158" t="s">
         <v>4283</v>
-      </c>
-      <c r="B2158" t="s">
-        <v>4284</v>
       </c>
     </row>
     <row r="2159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2159" t="s">
+        <v>4284</v>
+      </c>
+      <c r="B2159" t="s">
         <v>4285</v>
-      </c>
-      <c r="B2159" t="s">
-        <v>4286</v>
       </c>
     </row>
     <row r="2160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2160" t="s">
+        <v>4286</v>
+      </c>
+      <c r="B2160" t="s">
         <v>4287</v>
-      </c>
-      <c r="B2160" t="s">
-        <v>4288</v>
       </c>
     </row>
     <row r="2161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2161" t="s">
+        <v>4288</v>
+      </c>
+      <c r="B2161" t="s">
         <v>4289</v>
-      </c>
-      <c r="B2161" t="s">
-        <v>4290</v>
       </c>
     </row>
     <row r="2162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2162" t="s">
+        <v>4290</v>
+      </c>
+      <c r="B2162" t="s">
         <v>4291</v>
-      </c>
-      <c r="B2162" t="s">
-        <v>4292</v>
       </c>
     </row>
     <row r="2163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2163" t="s">
+        <v>4292</v>
+      </c>
+      <c r="B2163" t="s">
         <v>4293</v>
-      </c>
-      <c r="B2163" t="s">
-        <v>4294</v>
       </c>
     </row>
     <row r="2164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2164" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B2164" t="s">
         <v>4295</v>
-      </c>
-      <c r="B2164" t="s">
-        <v>4296</v>
       </c>
     </row>
     <row r="2165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2165" t="s">
+        <v>4296</v>
+      </c>
+      <c r="B2165" t="s">
         <v>4297</v>
-      </c>
-      <c r="B2165" t="s">
-        <v>4298</v>
       </c>
     </row>
     <row r="2166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2166" t="s">
+        <v>4298</v>
+      </c>
+      <c r="B2166" t="s">
         <v>4299</v>
-      </c>
-      <c r="B2166" t="s">
-        <v>4300</v>
       </c>
     </row>
     <row r="2167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2167" t="s">
+        <v>4300</v>
+      </c>
+      <c r="B2167" t="s">
         <v>4301</v>
-      </c>
-      <c r="B2167" t="s">
-        <v>4302</v>
       </c>
     </row>
     <row r="2168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2168" t="s">
+        <v>4302</v>
+      </c>
+      <c r="B2168" t="s">
         <v>4303</v>
-      </c>
-      <c r="B2168" t="s">
-        <v>4304</v>
       </c>
     </row>
     <row r="2169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2169" t="s">
+        <v>4304</v>
+      </c>
+      <c r="B2169" t="s">
         <v>4305</v>
-      </c>
-      <c r="B2169" t="s">
-        <v>4306</v>
       </c>
     </row>
     <row r="2170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2170" t="s">
+        <v>4306</v>
+      </c>
+      <c r="B2170" t="s">
         <v>4307</v>
-      </c>
-      <c r="B2170" t="s">
-        <v>4308</v>
       </c>
     </row>
     <row r="2171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2171" t="s">
+        <v>4308</v>
+      </c>
+      <c r="B2171" t="s">
         <v>4309</v>
-      </c>
-      <c r="B2171" t="s">
-        <v>4310</v>
       </c>
     </row>
     <row r="2172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2172" t="s">
+        <v>4310</v>
+      </c>
+      <c r="B2172" t="s">
         <v>4311</v>
-      </c>
-      <c r="B2172" t="s">
-        <v>4312</v>
       </c>
     </row>
     <row r="2173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2173" t="s">
+        <v>4312</v>
+      </c>
+      <c r="B2173" t="s">
         <v>4313</v>
-      </c>
-      <c r="B2173" t="s">
-        <v>4314</v>
       </c>
     </row>
     <row r="2174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2174" t="s">
+        <v>4314</v>
+      </c>
+      <c r="B2174" t="s">
         <v>4315</v>
-      </c>
-      <c r="B2174" t="s">
-        <v>4316</v>
       </c>
     </row>
     <row r="2175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2175" t="s">
+        <v>4316</v>
+      </c>
+      <c r="B2175" t="s">
         <v>4317</v>
-      </c>
-      <c r="B2175" t="s">
-        <v>4318</v>
       </c>
     </row>
     <row r="2176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2176" t="s">
+        <v>4318</v>
+      </c>
+      <c r="B2176" t="s">
         <v>4319</v>
-      </c>
-      <c r="B2176" t="s">
-        <v>4320</v>
       </c>
     </row>
     <row r="2177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2177" t="s">
+        <v>4320</v>
+      </c>
+      <c r="B2177" t="s">
         <v>4321</v>
-      </c>
-      <c r="B2177" t="s">
-        <v>4322</v>
       </c>
     </row>
     <row r="2178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2178" t="s">
+        <v>4322</v>
+      </c>
+      <c r="B2178" t="s">
         <v>4323</v>
-      </c>
-      <c r="B2178" t="s">
-        <v>4324</v>
       </c>
     </row>
     <row r="2179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2179" t="s">
+        <v>4324</v>
+      </c>
+      <c r="B2179" t="s">
         <v>4325</v>
-      </c>
-      <c r="B2179" t="s">
-        <v>4326</v>
       </c>
     </row>
     <row r="2180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2180" t="s">
+        <v>4326</v>
+      </c>
+      <c r="B2180" t="s">
         <v>4327</v>
-      </c>
-      <c r="B2180" t="s">
-        <v>4328</v>
       </c>
     </row>
     <row r="2181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2181" t="s">
+        <v>4328</v>
+      </c>
+      <c r="B2181" t="s">
         <v>4329</v>
-      </c>
-      <c r="B2181" t="s">
-        <v>4330</v>
       </c>
     </row>
     <row r="2182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2182" t="s">
+        <v>4330</v>
+      </c>
+      <c r="B2182" t="s">
         <v>4331</v>
-      </c>
-      <c r="B2182" t="s">
-        <v>4332</v>
       </c>
     </row>
     <row r="2183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2183" t="s">
+        <v>4332</v>
+      </c>
+      <c r="B2183" t="s">
         <v>4333</v>
-      </c>
-      <c r="B2183" t="s">
-        <v>4334</v>
       </c>
     </row>
     <row r="2184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2184" t="s">
+        <v>4334</v>
+      </c>
+      <c r="B2184" t="s">
         <v>4335</v>
-      </c>
-      <c r="B2184" t="s">
-        <v>4336</v>
       </c>
     </row>
     <row r="2185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2185" t="s">
+        <v>4336</v>
+      </c>
+      <c r="B2185" t="s">
         <v>4337</v>
-      </c>
-      <c r="B2185" t="s">
-        <v>4338</v>
       </c>
     </row>
     <row r="2186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2186" t="s">
+        <v>4338</v>
+      </c>
+      <c r="B2186" t="s">
         <v>4339</v>
-      </c>
-      <c r="B2186" t="s">
-        <v>4340</v>
       </c>
     </row>
     <row r="2187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2187" t="s">
+        <v>4340</v>
+      </c>
+      <c r="B2187" t="s">
         <v>4341</v>
-      </c>
-      <c r="B2187" t="s">
-        <v>4342</v>
       </c>
     </row>
     <row r="2188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2188" t="s">
+        <v>4342</v>
+      </c>
+      <c r="B2188" t="s">
         <v>4343</v>
-      </c>
-      <c r="B2188" t="s">
-        <v>4344</v>
       </c>
     </row>
     <row r="2189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2189" t="s">
+        <v>4344</v>
+      </c>
+      <c r="B2189" t="s">
         <v>4345</v>
-      </c>
-      <c r="B2189" t="s">
-        <v>4346</v>
       </c>
     </row>
     <row r="2190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2190" t="s">
+        <v>4346</v>
+      </c>
+      <c r="B2190" t="s">
         <v>4347</v>
-      </c>
-      <c r="B2190" t="s">
-        <v>4348</v>
       </c>
     </row>
     <row r="2191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2191" t="s">
+        <v>4348</v>
+      </c>
+      <c r="B2191" t="s">
         <v>4349</v>
-      </c>
-      <c r="B2191" t="s">
-        <v>4350</v>
       </c>
     </row>
     <row r="2192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2192" t="s">
+        <v>4350</v>
+      </c>
+      <c r="B2192" t="s">
         <v>4351</v>
-      </c>
-      <c r="B2192" t="s">
-        <v>4352</v>
       </c>
     </row>
     <row r="2193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2193" t="s">
+        <v>4352</v>
+      </c>
+      <c r="B2193" t="s">
         <v>4353</v>
-      </c>
-      <c r="B2193" t="s">
-        <v>4354</v>
       </c>
     </row>
     <row r="2194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2194" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B2194" t="s">
         <v>4355</v>
-      </c>
-      <c r="B2194" t="s">
-        <v>4356</v>
       </c>
     </row>
     <row r="2195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2195" t="s">
+        <v>4356</v>
+      </c>
+      <c r="B2195" t="s">
         <v>4357</v>
-      </c>
-      <c r="B2195" t="s">
-        <v>4358</v>
       </c>
     </row>
     <row r="2196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2196" t="s">
+        <v>4358</v>
+      </c>
+      <c r="B2196" t="s">
         <v>4359</v>
-      </c>
-      <c r="B2196" t="s">
-        <v>4360</v>
       </c>
     </row>
     <row r="2197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2197" t="s">
+        <v>4360</v>
+      </c>
+      <c r="B2197" t="s">
         <v>4361</v>
-      </c>
-      <c r="B2197" t="s">
-        <v>4362</v>
       </c>
     </row>
     <row r="2198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2198" t="s">
+        <v>4362</v>
+      </c>
+      <c r="B2198" t="s">
         <v>4363</v>
-      </c>
-      <c r="B2198" t="s">
-        <v>4364</v>
       </c>
     </row>
     <row r="2199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2199" t="s">
+        <v>4364</v>
+      </c>
+      <c r="B2199" t="s">
         <v>4365</v>
-      </c>
-      <c r="B2199" t="s">
-        <v>4366</v>
       </c>
     </row>
     <row r="2200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2200" t="s">
+        <v>4366</v>
+      </c>
+      <c r="B2200" t="s">
         <v>4367</v>
-      </c>
-      <c r="B2200" t="s">
-        <v>4368</v>
       </c>
     </row>
     <row r="2201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2201" t="s">
+        <v>4368</v>
+      </c>
+      <c r="B2201" t="s">
         <v>4369</v>
-      </c>
-      <c r="B2201" t="s">
-        <v>4370</v>
       </c>
     </row>
     <row r="2202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2202" t="s">
+        <v>4370</v>
+      </c>
+      <c r="B2202" t="s">
         <v>4371</v>
-      </c>
-      <c r="B2202" t="s">
-        <v>4372</v>
       </c>
     </row>
     <row r="2203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2203" t="s">
+        <v>4372</v>
+      </c>
+      <c r="B2203" t="s">
         <v>4373</v>
-      </c>
-      <c r="B2203" t="s">
-        <v>4374</v>
       </c>
     </row>
     <row r="2204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2204" t="s">
+        <v>4374</v>
+      </c>
+      <c r="B2204" t="s">
         <v>4375</v>
-      </c>
-      <c r="B2204" t="s">
-        <v>4376</v>
       </c>
     </row>
     <row r="2205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2205" t="s">
+        <v>4376</v>
+      </c>
+      <c r="B2205" t="s">
         <v>4377</v>
-      </c>
-      <c r="B2205" t="s">
-        <v>4378</v>
       </c>
     </row>
     <row r="2206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2206" t="s">
+        <v>4378</v>
+      </c>
+      <c r="B2206" t="s">
         <v>4379</v>
-      </c>
-      <c r="B2206" t="s">
-        <v>4380</v>
       </c>
     </row>
     <row r="2207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2207" t="s">
+        <v>4380</v>
+      </c>
+      <c r="B2207" t="s">
         <v>4381</v>
-      </c>
-      <c r="B2207" t="s">
-        <v>4382</v>
       </c>
     </row>
     <row r="2208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2208" t="s">
+        <v>4382</v>
+      </c>
+      <c r="B2208" t="s">
         <v>4383</v>
-      </c>
-      <c r="B2208" t="s">
-        <v>4384</v>
       </c>
     </row>
     <row r="2209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2209" t="s">
+        <v>4384</v>
+      </c>
+      <c r="B2209" t="s">
         <v>4385</v>
-      </c>
-      <c r="B2209" t="s">
-        <v>4386</v>
       </c>
     </row>
     <row r="2210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2210" t="s">
+        <v>4386</v>
+      </c>
+      <c r="B2210" t="s">
         <v>4387</v>
-      </c>
-      <c r="B2210" t="s">
-        <v>4388</v>
       </c>
     </row>
     <row r="2211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2211" t="s">
+        <v>4388</v>
+      </c>
+      <c r="B2211" t="s">
         <v>4389</v>
-      </c>
-      <c r="B2211" t="s">
-        <v>4390</v>
       </c>
     </row>
     <row r="2212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2212" t="s">
+        <v>4390</v>
+      </c>
+      <c r="B2212" t="s">
         <v>4391</v>
-      </c>
-      <c r="B2212" t="s">
-        <v>4392</v>
       </c>
     </row>
     <row r="2213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2213" t="s">
+        <v>4392</v>
+      </c>
+      <c r="B2213" t="s">
         <v>4393</v>
-      </c>
-      <c r="B2213" t="s">
-        <v>4394</v>
       </c>
     </row>
     <row r="2214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2214" t="s">
+        <v>4394</v>
+      </c>
+      <c r="B2214" t="s">
         <v>4395</v>
-      </c>
-      <c r="B2214" t="s">
-        <v>4396</v>
       </c>
     </row>
     <row r="2215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2215" t="s">
+        <v>4396</v>
+      </c>
+      <c r="B2215" t="s">
         <v>4397</v>
-      </c>
-      <c r="B2215" t="s">
-        <v>4398</v>
       </c>
     </row>
     <row r="2216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2216" t="s">
+        <v>4398</v>
+      </c>
+      <c r="B2216" t="s">
         <v>4399</v>
-      </c>
-      <c r="B2216" t="s">
-        <v>4400</v>
       </c>
     </row>
     <row r="2217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2217" t="s">
+        <v>4400</v>
+      </c>
+      <c r="B2217" t="s">
         <v>4401</v>
-      </c>
-      <c r="B2217" t="s">
-        <v>4402</v>
       </c>
     </row>
     <row r="2218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2218" t="s">
-        <v>4403</v>
+        <v>4402</v>
       </c>
       <c r="B2218" t="s">
-        <v>4593</v>
+        <v>4592</v>
       </c>
     </row>
     <row r="2219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2219" t="s">
+        <v>4403</v>
+      </c>
+      <c r="B2219" t="s">
         <v>4404</v>
-      </c>
-      <c r="B2219" t="s">
-        <v>4405</v>
       </c>
     </row>
     <row r="2220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2220" t="s">
+        <v>4405</v>
+      </c>
+      <c r="B2220" t="s">
         <v>4406</v>
-      </c>
-      <c r="B2220" t="s">
-        <v>4407</v>
       </c>
     </row>
     <row r="2221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2221" t="s">
+        <v>4407</v>
+      </c>
+      <c r="B2221" t="s">
         <v>4408</v>
-      </c>
-      <c r="B2221" t="s">
-        <v>4409</v>
       </c>
     </row>
     <row r="2222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2222" t="s">
+        <v>4409</v>
+      </c>
+      <c r="B2222" t="s">
         <v>4410</v>
-      </c>
-      <c r="B2222" t="s">
-        <v>4411</v>
       </c>
     </row>
     <row r="2223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2223" t="s">
+        <v>4411</v>
+      </c>
+      <c r="B2223" t="s">
         <v>4412</v>
-      </c>
-      <c r="B2223" t="s">
-        <v>4413</v>
       </c>
     </row>
     <row r="2224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2224" t="s">
-        <v>4414</v>
+        <v>4413</v>
       </c>
       <c r="B2224" t="s">
-        <v>4594</v>
+        <v>4593</v>
       </c>
     </row>
     <row r="2225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2225" t="s">
+        <v>4414</v>
+      </c>
+      <c r="B2225" t="s">
         <v>4415</v>
-      </c>
-      <c r="B2225" t="s">
-        <v>4416</v>
       </c>
     </row>
     <row r="2226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2226" t="s">
+        <v>4416</v>
+      </c>
+      <c r="B2226" t="s">
         <v>4417</v>
-      </c>
-      <c r="B2226" t="s">
-        <v>4418</v>
       </c>
     </row>
     <row r="2227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2227" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B2227" t="s">
         <v>4419</v>
-      </c>
-      <c r="B2227" t="s">
-        <v>4420</v>
       </c>
     </row>
     <row r="2228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2228" t="s">
+        <v>4420</v>
+      </c>
+      <c r="B2228" t="s">
         <v>4421</v>
-      </c>
-      <c r="B2228" t="s">
-        <v>4422</v>
       </c>
     </row>
     <row r="2229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2229" t="s">
+        <v>4422</v>
+      </c>
+      <c r="B2229" t="s">
         <v>4423</v>
-      </c>
-      <c r="B2229" t="s">
-        <v>4424</v>
       </c>
     </row>
     <row r="2230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2230" t="s">
+        <v>4424</v>
+      </c>
+      <c r="B2230" t="s">
         <v>4425</v>
-      </c>
-      <c r="B2230" t="s">
-        <v>4426</v>
       </c>
     </row>
     <row r="2231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2231" t="s">
+        <v>4426</v>
+      </c>
+      <c r="B2231" t="s">
         <v>4427</v>
-      </c>
-      <c r="B2231" t="s">
-        <v>4428</v>
       </c>
     </row>
     <row r="2232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2232" t="s">
+        <v>4428</v>
+      </c>
+      <c r="B2232" t="s">
         <v>4429</v>
-      </c>
-      <c r="B2232" t="s">
-        <v>4430</v>
       </c>
     </row>
     <row r="2233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2233" t="s">
+        <v>4430</v>
+      </c>
+      <c r="B2233" t="s">
         <v>4431</v>
-      </c>
-      <c r="B2233" t="s">
-        <v>4432</v>
       </c>
     </row>
     <row r="2234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2234" t="s">
+        <v>4432</v>
+      </c>
+      <c r="B2234" t="s">
         <v>4433</v>
-      </c>
-      <c r="B2234" t="s">
-        <v>4434</v>
       </c>
     </row>
     <row r="2235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2235" t="s">
+        <v>4434</v>
+      </c>
+      <c r="B2235" t="s">
         <v>4435</v>
-      </c>
-      <c r="B2235" t="s">
-        <v>4436</v>
       </c>
     </row>
     <row r="2236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2236" t="s">
+        <v>4436</v>
+      </c>
+      <c r="B2236" t="s">
         <v>4437</v>
-      </c>
-      <c r="B2236" t="s">
-        <v>4438</v>
       </c>
     </row>
     <row r="2237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2237" t="s">
+        <v>4438</v>
+      </c>
+      <c r="B2237" t="s">
         <v>4439</v>
-      </c>
-      <c r="B2237" t="s">
-        <v>4440</v>
       </c>
     </row>
     <row r="2238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2238" t="s">
+        <v>4440</v>
+      </c>
+      <c r="B2238" t="s">
         <v>4441</v>
-      </c>
-      <c r="B2238" t="s">
-        <v>4442</v>
       </c>
     </row>
     <row r="2239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2239" t="s">
+        <v>4442</v>
+      </c>
+      <c r="B2239" t="s">
         <v>4443</v>
-      </c>
-      <c r="B2239" t="s">
-        <v>4444</v>
       </c>
     </row>
     <row r="2240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2240" t="s">
+        <v>4444</v>
+      </c>
+      <c r="B2240" t="s">
         <v>4445</v>
-      </c>
-      <c r="B2240" t="s">
-        <v>4446</v>
       </c>
     </row>
     <row r="2241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2241" t="s">
+        <v>4446</v>
+      </c>
+      <c r="B2241" t="s">
         <v>4447</v>
-      </c>
-      <c r="B2241" t="s">
-        <v>4448</v>
       </c>
     </row>
     <row r="2242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2242" t="s">
+        <v>4448</v>
+      </c>
+      <c r="B2242" t="s">
         <v>4449</v>
-      </c>
-      <c r="B2242" t="s">
-        <v>4450</v>
       </c>
     </row>
     <row r="2243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2243" t="s">
+        <v>4450</v>
+      </c>
+      <c r="B2243" t="s">
         <v>4451</v>
-      </c>
-      <c r="B2243" t="s">
-        <v>4452</v>
       </c>
     </row>
     <row r="2244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2244" t="s">
+        <v>4452</v>
+      </c>
+      <c r="B2244" t="s">
         <v>4453</v>
-      </c>
-      <c r="B2244" t="s">
-        <v>4454</v>
       </c>
     </row>
     <row r="2245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2245" t="s">
+        <v>4454</v>
+      </c>
+      <c r="B2245" t="s">
         <v>4455</v>
-      </c>
-      <c r="B2245" t="s">
-        <v>4456</v>
       </c>
     </row>
     <row r="2246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2246" t="s">
+        <v>4456</v>
+      </c>
+      <c r="B2246" t="s">
         <v>4457</v>
-      </c>
-      <c r="B2246" t="s">
-        <v>4458</v>
       </c>
     </row>
     <row r="2247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2247" t="s">
+        <v>4458</v>
+      </c>
+      <c r="B2247" t="s">
         <v>4459</v>
-      </c>
-      <c r="B2247" t="s">
-        <v>4460</v>
       </c>
     </row>
     <row r="2248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2248" t="s">
+        <v>4460</v>
+      </c>
+      <c r="B2248" t="s">
         <v>4461</v>
-      </c>
-      <c r="B2248" t="s">
-        <v>4462</v>
       </c>
     </row>
     <row r="2249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2249" t="s">
+        <v>4462</v>
+      </c>
+      <c r="B2249" t="s">
         <v>4463</v>
-      </c>
-      <c r="B2249" t="s">
-        <v>4464</v>
       </c>
     </row>
     <row r="2250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2250" t="s">
+        <v>4464</v>
+      </c>
+      <c r="B2250" t="s">
         <v>4465</v>
-      </c>
-      <c r="B2250" t="s">
-        <v>4466</v>
       </c>
     </row>
     <row r="2251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2251" t="s">
+        <v>4466</v>
+      </c>
+      <c r="B2251" t="s">
         <v>4467</v>
-      </c>
-      <c r="B2251" t="s">
-        <v>4468</v>
       </c>
     </row>
     <row r="2252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2252" t="s">
+        <v>4468</v>
+      </c>
+      <c r="B2252" t="s">
         <v>4469</v>
-      </c>
-      <c r="B2252" t="s">
-        <v>4470</v>
       </c>
     </row>
     <row r="2253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2253" t="s">
+        <v>4470</v>
+      </c>
+      <c r="B2253" t="s">
         <v>4471</v>
-      </c>
-      <c r="B2253" t="s">
-        <v>4472</v>
       </c>
     </row>
     <row r="2254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2254" t="s">
+        <v>4472</v>
+      </c>
+      <c r="B2254" t="s">
         <v>4473</v>
-      </c>
-      <c r="B2254" t="s">
-        <v>4474</v>
       </c>
     </row>
     <row r="2255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2255" t="s">
+        <v>4474</v>
+      </c>
+      <c r="B2255" t="s">
         <v>4475</v>
-      </c>
-      <c r="B2255" t="s">
-        <v>4476</v>
       </c>
     </row>
     <row r="2256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2256" t="s">
+        <v>4476</v>
+      </c>
+      <c r="B2256" t="s">
         <v>4477</v>
-      </c>
-      <c r="B2256" t="s">
-        <v>4478</v>
       </c>
     </row>
     <row r="2257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2257" t="s">
+        <v>4478</v>
+      </c>
+      <c r="B2257" t="s">
         <v>4479</v>
-      </c>
-      <c r="B2257" t="s">
-        <v>4480</v>
       </c>
     </row>
     <row r="2258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2258" t="s">
+        <v>4480</v>
+      </c>
+      <c r="B2258" t="s">
         <v>4481</v>
-      </c>
-      <c r="B2258" t="s">
-        <v>4482</v>
       </c>
     </row>
     <row r="2259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2259" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B2259" t="s">
         <v>4483</v>
-      </c>
-      <c r="B2259" t="s">
-        <v>4484</v>
       </c>
     </row>
     <row r="2260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2260" t="s">
+        <v>4484</v>
+      </c>
+      <c r="B2260" t="s">
         <v>4485</v>
-      </c>
-      <c r="B2260" t="s">
-        <v>4486</v>
       </c>
     </row>
     <row r="2261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2261" t="s">
+        <v>4486</v>
+      </c>
+      <c r="B2261" t="s">
         <v>4487</v>
-      </c>
-      <c r="B2261" t="s">
-        <v>4488</v>
       </c>
     </row>
     <row r="2262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2262" t="s">
+        <v>4488</v>
+      </c>
+      <c r="B2262" t="s">
         <v>4489</v>
-      </c>
-      <c r="B2262" t="s">
-        <v>4490</v>
       </c>
     </row>
     <row r="2263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2263" t="s">
+        <v>4490</v>
+      </c>
+      <c r="B2263" t="s">
         <v>4491</v>
-      </c>
-      <c r="B2263" t="s">
-        <v>4492</v>
       </c>
     </row>
     <row r="2264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2264" t="s">
+        <v>4492</v>
+      </c>
+      <c r="B2264" t="s">
         <v>4493</v>
-      </c>
-      <c r="B2264" t="s">
-        <v>4494</v>
       </c>
     </row>
     <row r="2265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2265" t="s">
+        <v>4494</v>
+      </c>
+      <c r="B2265" t="s">
         <v>4495</v>
-      </c>
-      <c r="B2265" t="s">
-        <v>4496</v>
       </c>
     </row>
     <row r="2266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2266" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B2266" t="s">
         <v>4497</v>
-      </c>
-      <c r="B2266" t="s">
-        <v>4498</v>
       </c>
     </row>
     <row r="2267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2267" t="s">
+        <v>4498</v>
+      </c>
+      <c r="B2267" t="s">
         <v>4499</v>
-      </c>
-      <c r="B2267" t="s">
-        <v>4500</v>
       </c>
     </row>
     <row r="2268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2268" t="s">
+        <v>4500</v>
+      </c>
+      <c r="B2268" t="s">
         <v>4501</v>
-      </c>
-      <c r="B2268" t="s">
-        <v>4502</v>
       </c>
     </row>
     <row r="2269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2269" t="s">
+        <v>4502</v>
+      </c>
+      <c r="B2269" t="s">
         <v>4503</v>
-      </c>
-      <c r="B2269" t="s">
-        <v>4504</v>
       </c>
     </row>
     <row r="2270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2270" t="s">
+        <v>4504</v>
+      </c>
+      <c r="B2270" t="s">
         <v>4505</v>
-      </c>
-      <c r="B2270" t="s">
-        <v>4506</v>
       </c>
     </row>
     <row r="2271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2271" t="s">
+        <v>4506</v>
+      </c>
+      <c r="B2271" t="s">
         <v>4507</v>
-      </c>
-      <c r="B2271" t="s">
-        <v>4508</v>
       </c>
     </row>
     <row r="2272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2272" t="s">
+        <v>4508</v>
+      </c>
+      <c r="B2272" t="s">
         <v>4509</v>
-      </c>
-      <c r="B2272" t="s">
-        <v>4510</v>
       </c>
     </row>
     <row r="2273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2273" t="s">
+        <v>4510</v>
+      </c>
+      <c r="B2273" t="s">
         <v>4511</v>
-      </c>
-      <c r="B2273" t="s">
-        <v>4512</v>
       </c>
     </row>
     <row r="2274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2274" t="s">
+        <v>4512</v>
+      </c>
+      <c r="B2274" t="s">
         <v>4513</v>
-      </c>
-      <c r="B2274" t="s">
-        <v>4514</v>
       </c>
     </row>
     <row r="2275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2275" t="s">
+        <v>4514</v>
+      </c>
+      <c r="B2275" t="s">
         <v>4515</v>
-      </c>
-      <c r="B2275" t="s">
-        <v>4516</v>
       </c>
     </row>
     <row r="2276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2276" t="s">
+        <v>4516</v>
+      </c>
+      <c r="B2276" t="s">
         <v>4517</v>
-      </c>
-      <c r="B2276" t="s">
-        <v>4518</v>
       </c>
     </row>
     <row r="2277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2277" t="s">
+        <v>4518</v>
+      </c>
+      <c r="B2277" t="s">
         <v>4519</v>
-      </c>
-      <c r="B2277" t="s">
-        <v>4520</v>
       </c>
     </row>
     <row r="2278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2278" t="s">
+        <v>4520</v>
+      </c>
+      <c r="B2278" t="s">
         <v>4521</v>
-      </c>
-      <c r="B2278" t="s">
-        <v>4522</v>
       </c>
     </row>
     <row r="2279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2279" t="s">
+        <v>4522</v>
+      </c>
+      <c r="B2279" t="s">
         <v>4523</v>
-      </c>
-      <c r="B2279" t="s">
-        <v>4524</v>
       </c>
     </row>
     <row r="2280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2280" t="s">
+        <v>4524</v>
+      </c>
+      <c r="B2280" t="s">
         <v>4525</v>
-      </c>
-      <c r="B2280" t="s">
-        <v>4526</v>
       </c>
     </row>
     <row r="2281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2281" t="s">
+        <v>4526</v>
+      </c>
+      <c r="B2281" t="s">
         <v>4527</v>
-      </c>
-      <c r="B2281" t="s">
-        <v>4528</v>
       </c>
     </row>
     <row r="2282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2282" t="s">
+        <v>4528</v>
+      </c>
+      <c r="B2282" t="s">
         <v>4529</v>
-      </c>
-      <c r="B2282" t="s">
-        <v>4530</v>
       </c>
     </row>
     <row r="2283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2283" t="s">
+        <v>4530</v>
+      </c>
+      <c r="B2283" t="s">
         <v>4531</v>
-      </c>
-      <c r="B2283" t="s">
-        <v>4532</v>
       </c>
     </row>
     <row r="2284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2284" t="s">
+        <v>4532</v>
+      </c>
+      <c r="B2284" t="s">
         <v>4533</v>
-      </c>
-      <c r="B2284" t="s">
-        <v>4534</v>
       </c>
     </row>
     <row r="2285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2285" t="s">
+        <v>4534</v>
+      </c>
+      <c r="B2285" t="s">
         <v>4535</v>
-      </c>
-      <c r="B2285" t="s">
-        <v>4536</v>
       </c>
     </row>
     <row r="2286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2286" t="s">
+        <v>4536</v>
+      </c>
+      <c r="B2286" t="s">
         <v>4537</v>
-      </c>
-      <c r="B2286" t="s">
-        <v>4538</v>
       </c>
     </row>
     <row r="2287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2287" t="s">
+        <v>4538</v>
+      </c>
+      <c r="B2287" t="s">
         <v>4539</v>
-      </c>
-      <c r="B2287" t="s">
-        <v>4540</v>
       </c>
     </row>
     <row r="2288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2288" t="s">
+        <v>4540</v>
+      </c>
+      <c r="B2288" t="s">
         <v>4541</v>
-      </c>
-      <c r="B2288" t="s">
-        <v>4542</v>
       </c>
     </row>
     <row r="2289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2289" t="s">
+        <v>4542</v>
+      </c>
+      <c r="B2289" t="s">
         <v>4543</v>
-      </c>
-      <c r="B2289" t="s">
-        <v>4544</v>
       </c>
     </row>
     <row r="2290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2290" t="s">
+        <v>4544</v>
+      </c>
+      <c r="B2290" t="s">
         <v>4545</v>
-      </c>
-      <c r="B2290" t="s">
-        <v>4546</v>
       </c>
     </row>
     <row r="2291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2291" t="s">
+        <v>4546</v>
+      </c>
+      <c r="B2291" t="s">
         <v>4547</v>
-      </c>
-      <c r="B2291" t="s">
-        <v>4548</v>
       </c>
     </row>
     <row r="2292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2292" t="s">
+        <v>4548</v>
+      </c>
+      <c r="B2292" t="s">
         <v>4549</v>
-      </c>
-      <c r="B2292" t="s">
-        <v>4550</v>
       </c>
     </row>
     <row r="2293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2293" t="s">
+        <v>4550</v>
+      </c>
+      <c r="B2293" t="s">
         <v>4551</v>
-      </c>
-      <c r="B2293" t="s">
-        <v>4552</v>
       </c>
     </row>
     <row r="2294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2294" t="s">
+        <v>4552</v>
+      </c>
+      <c r="B2294" t="s">
         <v>4553</v>
-      </c>
-      <c r="B2294" t="s">
-        <v>4554</v>
       </c>
     </row>
     <row r="2295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2295" t="s">
+        <v>4554</v>
+      </c>
+      <c r="B2295" t="s">
         <v>4555</v>
-      </c>
-      <c r="B2295" t="s">
-        <v>4556</v>
       </c>
     </row>
     <row r="2296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2296" t="s">
+        <v>4556</v>
+      </c>
+      <c r="B2296" t="s">
         <v>4557</v>
-      </c>
-      <c r="B2296" t="s">
-        <v>4558</v>
       </c>
     </row>
     <row r="2297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2297" t="s">
+        <v>4558</v>
+      </c>
+      <c r="B2297" t="s">
         <v>4559</v>
-      </c>
-      <c r="B2297" t="s">
-        <v>4560</v>
       </c>
     </row>
     <row r="2298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2298" t="s">
+        <v>4560</v>
+      </c>
+      <c r="B2298" t="s">
         <v>4561</v>
-      </c>
-      <c r="B2298" t="s">
-        <v>4562</v>
       </c>
     </row>
     <row r="2299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2299" t="s">
+        <v>4594</v>
+      </c>
+      <c r="B2299" t="s">
         <v>4595</v>
-      </c>
-      <c r="B2299" t="s">
-        <v>4596</v>
       </c>
     </row>
     <row r="2300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2300" t="s">
+        <v>4596</v>
+      </c>
+      <c r="B2300" t="s">
         <v>4597</v>
-      </c>
-      <c r="B2300" t="s">
-        <v>4598</v>
       </c>
     </row>
     <row r="2301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2301" t="s">
+        <v>4598</v>
+      </c>
+      <c r="B2301" t="s">
         <v>4599</v>
-      </c>
-      <c r="B2301" t="s">
-        <v>4600</v>
       </c>
     </row>
     <row r="2302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2302" t="s">
+        <v>4600</v>
+      </c>
+      <c r="B2302" t="s">
         <v>4601</v>
-      </c>
-      <c r="B2302" t="s">
-        <v>4602</v>
       </c>
     </row>
     <row r="2303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2303" t="s">
+        <v>4602</v>
+      </c>
+      <c r="B2303" t="s">
         <v>4603</v>
-      </c>
-      <c r="B2303" t="s">
-        <v>4604</v>
       </c>
     </row>
     <row r="2304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2304" t="s">
+        <v>4604</v>
+      </c>
+      <c r="B2304" t="s">
         <v>4605</v>
-      </c>
-      <c r="B2304" t="s">
-        <v>4606</v>
       </c>
     </row>
     <row r="2305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2305" t="s">
+        <v>4606</v>
+      </c>
+      <c r="B2305" t="s">
         <v>4607</v>
-      </c>
-      <c r="B2305" t="s">
-        <v>4608</v>
       </c>
     </row>
     <row r="2306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2306" t="s">
+        <v>4608</v>
+      </c>
+      <c r="B2306" t="s">
         <v>4609</v>
-      </c>
-      <c r="B2306" t="s">
-        <v>4610</v>
       </c>
     </row>
     <row r="2307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2307" t="s">
+        <v>4610</v>
+      </c>
+      <c r="B2307" t="s">
         <v>4611</v>
-      </c>
-      <c r="B2307" t="s">
-        <v>4612</v>
       </c>
     </row>
     <row r="2308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2308" t="s">
+        <v>4612</v>
+      </c>
+      <c r="B2308" t="s">
         <v>4613</v>
-      </c>
-      <c r="B2308" t="s">
-        <v>4614</v>
       </c>
     </row>
     <row r="2309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2309" t="s">
+        <v>4614</v>
+      </c>
+      <c r="B2309" t="s">
         <v>4615</v>
-      </c>
-      <c r="B2309" t="s">
-        <v>4616</v>
       </c>
     </row>
     <row r="2310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2310" t="s">
+        <v>4616</v>
+      </c>
+      <c r="B2310" t="s">
         <v>4617</v>
-      </c>
-      <c r="B2310" t="s">
-        <v>4618</v>
       </c>
     </row>
     <row r="2311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2311" t="s">
+        <v>4618</v>
+      </c>
+      <c r="B2311" t="s">
         <v>4619</v>
-      </c>
-      <c r="B2311" t="s">
-        <v>4620</v>
       </c>
     </row>
     <row r="2312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2312" t="s">
+        <v>4620</v>
+      </c>
+      <c r="B2312" t="s">
         <v>4621</v>
-      </c>
-      <c r="B2312" t="s">
-        <v>4622</v>
       </c>
     </row>
     <row r="2313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2313" t="s">
+        <v>4622</v>
+      </c>
+      <c r="B2313" t="s">
         <v>4623</v>
-      </c>
-      <c r="B2313" t="s">
-        <v>4624</v>
       </c>
     </row>
     <row r="2314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2314" t="s">
+        <v>4624</v>
+      </c>
+      <c r="B2314" t="s">
         <v>4625</v>
-      </c>
-      <c r="B2314" t="s">
-        <v>4626</v>
       </c>
     </row>
     <row r="2315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2315" t="s">
+        <v>4626</v>
+      </c>
+      <c r="B2315" t="s">
         <v>4627</v>
-      </c>
-      <c r="B2315" t="s">
-        <v>4628</v>
       </c>
     </row>
     <row r="2316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2316" t="s">
+        <v>4628</v>
+      </c>
+      <c r="B2316" t="s">
         <v>4629</v>
-      </c>
-      <c r="B2316" t="s">
-        <v>4630</v>
       </c>
     </row>
     <row r="2317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2317" t="s">
+        <v>4630</v>
+      </c>
+      <c r="B2317" t="s">
         <v>4631</v>
-      </c>
-      <c r="B2317" t="s">
-        <v>4632</v>
       </c>
     </row>
     <row r="2318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2318" t="s">
+        <v>4632</v>
+      </c>
+      <c r="B2318" t="s">
         <v>4633</v>
-      </c>
-      <c r="B2318" t="s">
-        <v>4634</v>
       </c>
     </row>
     <row r="2319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2319" t="s">
+        <v>4634</v>
+      </c>
+      <c r="B2319" t="s">
         <v>4635</v>
-      </c>
-      <c r="B2319" t="s">
-        <v>4636</v>
       </c>
     </row>
     <row r="2320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2320" t="s">
+        <v>4636</v>
+      </c>
+      <c r="B2320" t="s">
         <v>4637</v>
-      </c>
-      <c r="B2320" t="s">
-        <v>4638</v>
       </c>
     </row>
     <row r="2321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2321" t="s">
+        <v>4638</v>
+      </c>
+      <c r="B2321" t="s">
         <v>4639</v>
-      </c>
-      <c r="B2321" t="s">
-        <v>4640</v>
       </c>
     </row>
     <row r="2322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2322" t="s">
+        <v>4640</v>
+      </c>
+      <c r="B2322" t="s">
         <v>4641</v>
-      </c>
-      <c r="B2322" t="s">
-        <v>4642</v>
       </c>
     </row>
     <row r="2323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2323" t="s">
+        <v>4642</v>
+      </c>
+      <c r="B2323" t="s">
         <v>4643</v>
-      </c>
-      <c r="B2323" t="s">
-        <v>4644</v>
       </c>
     </row>
     <row r="2324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2324" t="s">
+        <v>4644</v>
+      </c>
+      <c r="B2324" t="s">
         <v>4645</v>
-      </c>
-      <c r="B2324" t="s">
-        <v>4646</v>
       </c>
     </row>
     <row r="2325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2325" t="s">
+        <v>4646</v>
+      </c>
+      <c r="B2325" t="s">
         <v>4647</v>
-      </c>
-      <c r="B2325" t="s">
-        <v>4648</v>
       </c>
     </row>
     <row r="2326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2326" t="s">
+        <v>4648</v>
+      </c>
+      <c r="B2326" t="s">
         <v>4649</v>
-      </c>
-      <c r="B2326" t="s">
-        <v>4650</v>
       </c>
     </row>
     <row r="2327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2327" t="s">
+        <v>4650</v>
+      </c>
+      <c r="B2327" t="s">
         <v>4651</v>
-      </c>
-      <c r="B2327" t="s">
-        <v>4652</v>
       </c>
     </row>
     <row r="2328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2328" t="s">
+        <v>4652</v>
+      </c>
+      <c r="B2328" t="s">
         <v>4653</v>
-      </c>
-      <c r="B2328" t="s">
-        <v>4654</v>
       </c>
     </row>
     <row r="2329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2329" t="s">
+        <v>4654</v>
+      </c>
+      <c r="B2329" t="s">
         <v>4655</v>
-      </c>
-      <c r="B2329" t="s">
-        <v>4656</v>
       </c>
     </row>
     <row r="2330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2330" t="s">
+        <v>4656</v>
+      </c>
+      <c r="B2330" t="s">
         <v>4657</v>
-      </c>
-      <c r="B2330" t="s">
-        <v>4658</v>
       </c>
     </row>
     <row r="2331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2331" t="s">
+        <v>4658</v>
+      </c>
+      <c r="B2331" t="s">
         <v>4659</v>
-      </c>
-      <c r="B2331" t="s">
-        <v>4660</v>
       </c>
     </row>
     <row r="2332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2332" t="s">
+        <v>4660</v>
+      </c>
+      <c r="B2332" t="s">
         <v>4661</v>
-      </c>
-      <c r="B2332" t="s">
-        <v>4662</v>
       </c>
     </row>
     <row r="2333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2333" t="s">
+        <v>4662</v>
+      </c>
+      <c r="B2333" t="s">
         <v>4663</v>
-      </c>
-      <c r="B2333" t="s">
-        <v>4664</v>
       </c>
     </row>
     <row r="2334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2334" t="s">
+        <v>4664</v>
+      </c>
+      <c r="B2334" t="s">
         <v>4665</v>
-      </c>
-      <c r="B2334" t="s">
-        <v>4666</v>
       </c>
     </row>
     <row r="2335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2335" t="s">
+        <v>4666</v>
+      </c>
+      <c r="B2335" t="s">
         <v>4667</v>
-      </c>
-      <c r="B2335" t="s">
-        <v>4668</v>
       </c>
     </row>
     <row r="2336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2336" t="s">
+        <v>4668</v>
+      </c>
+      <c r="B2336" t="s">
         <v>4669</v>
-      </c>
-      <c r="B2336" t="s">
-        <v>4670</v>
       </c>
     </row>
     <row r="2337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2337" t="s">
+        <v>4670</v>
+      </c>
+      <c r="B2337" t="s">
         <v>4671</v>
-      </c>
-      <c r="B2337" t="s">
-        <v>4672</v>
       </c>
     </row>
     <row r="2338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2338" t="s">
+        <v>4672</v>
+      </c>
+      <c r="B2338" t="s">
         <v>4673</v>
-      </c>
-      <c r="B2338" t="s">
-        <v>4674</v>
       </c>
     </row>
     <row r="2339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2339" t="s">
+        <v>4674</v>
+      </c>
+      <c r="B2339" t="s">
         <v>4675</v>
-      </c>
-      <c r="B2339" t="s">
-        <v>4676</v>
       </c>
     </row>
     <row r="2340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2340" t="s">
+        <v>4676</v>
+      </c>
+      <c r="B2340" t="s">
         <v>4677</v>
-      </c>
-      <c r="B2340" t="s">
-        <v>4678</v>
       </c>
     </row>
     <row r="2341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2341" t="s">
+        <v>4678</v>
+      </c>
+      <c r="B2341" t="s">
         <v>4679</v>
-      </c>
-      <c r="B2341" t="s">
-        <v>4680</v>
       </c>
     </row>
     <row r="2342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2342" t="s">
+        <v>4680</v>
+      </c>
+      <c r="B2342" t="s">
         <v>4681</v>
-      </c>
-      <c r="B2342" t="s">
-        <v>4682</v>
       </c>
     </row>
     <row r="2343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2343" t="s">
+        <v>4682</v>
+      </c>
+      <c r="B2343" t="s">
         <v>4683</v>
-      </c>
-      <c r="B2343" t="s">
-        <v>4684</v>
       </c>
     </row>
     <row r="2344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2344" t="s">
+        <v>4684</v>
+      </c>
+      <c r="B2344" t="s">
         <v>4685</v>
-      </c>
-      <c r="B2344" t="s">
-        <v>4686</v>
       </c>
     </row>
     <row r="2345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2345" t="s">
+        <v>4686</v>
+      </c>
+      <c r="B2345" t="s">
         <v>4687</v>
-      </c>
-      <c r="B2345" t="s">
-        <v>4688</v>
       </c>
     </row>
   </sheetData>
